--- a/data/jod_k_fold_20.xlsx
+++ b/data/jod_k_fold_20.xlsx
@@ -451,37 +451,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mcmc</t>
+          <t>MCMC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mini_splatting</t>
+          <t>Mini-Splatting</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>eagles</t>
+          <t>EAGLES</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>mip_splatting</t>
+          <t>Mip-Splatting</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>gaussian_pro</t>
+          <t>Gaussian-Pro</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>geo_gaussian</t>
+          <t>Geo-Gaussian</t>
         </is>
       </c>
     </row>
@@ -503,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.889599311184903</v>
+        <v>1.76877898078555</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6416519560441569</v>
+        <v>0.2721028106102316</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7475677593944273</v>
+        <v>-0.3117843098023154</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3844922556157149</v>
+        <v>-1.244931839490862</v>
       </c>
       <c r="I2" t="n">
-        <v>1.225611358451833</v>
+        <v>0.5402711401920739</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5987380827345116</v>
+        <v>-0.2628868627419917</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7427619244270607</v>
+        <v>-0.7615490875652452</v>
       </c>
     </row>
     <row r="3">
@@ -542,25 +542,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>6.410905180378924</v>
+        <v>1.31268623358996</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7247058854924697</v>
+        <v>0.04569432036763003</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.700298855945771</v>
+        <v>0.2078859880831891</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.280625573584574</v>
+        <v>-1.379587743236368</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2796259157896894</v>
+        <v>0.8606182249329972</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.016188305900662</v>
+        <v>-0.3761070855431577</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.409475222338721</v>
+        <v>-0.6711815008388496</v>
       </c>
     </row>
     <row r="4">
@@ -581,25 +581,25 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1.692513942017302</v>
+        <v>1.252760224559887</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04133454319761426</v>
+        <v>-0.2584115066383492</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6333084035885532</v>
+        <v>0.01263198001074265</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5405586398476293</v>
+        <v>-0.9332798607379563</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6589981435456499</v>
+        <v>0.3620091465794291</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4450706203464198</v>
+        <v>0.1202238533076731</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.6912423309846191</v>
+        <v>-0.5559372352909203</v>
       </c>
     </row>
     <row r="5">
@@ -620,25 +620,25 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.681914830661257</v>
+        <v>1.144164125161606</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.237478402207589</v>
+        <v>0.05184904670476152</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6446400359877292</v>
+        <v>0.009823256815698912</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5591023196830512</v>
+        <v>-0.9261807645090522</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7510334212886333</v>
+        <v>0.5015788197396127</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3126009658187857</v>
+        <v>-0.1155088591422665</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.6791289702903588</v>
+        <v>-0.6657245062418519</v>
       </c>
     </row>
     <row r="6">
@@ -659,25 +659,25 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.652473371437979</v>
+        <v>1.506413974108076</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2294563896901599</v>
+        <v>0.005924367737842596</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6431576846053561</v>
+        <v>0.0103343371103503</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.5475142623442733</v>
+        <v>-0.9513962284491362</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6707360724945266</v>
+        <v>0.2062009625617325</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3139768038512115</v>
+        <v>-0.1829617289539515</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.5891041649608676</v>
+        <v>-0.5945177656669696</v>
       </c>
     </row>
     <row r="7">
@@ -698,25 +698,25 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.745431173182298</v>
+        <v>1.118552040009877</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01182306979386977</v>
+        <v>0.4709141370340663</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9504643495581209</v>
+        <v>-0.1731825156970845</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5409681710018218</v>
+        <v>-0.9077334786116732</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7598830240965937</v>
+        <v>0.5170961990222905</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.314355954972258</v>
+        <v>-0.4078652940308278</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.6877037381511344</v>
+        <v>-0.6177758599706896</v>
       </c>
     </row>
     <row r="8">
@@ -737,25 +737,25 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.701057681287553</v>
+        <v>1.25456948948896</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3887726949831145</v>
+        <v>-0.1728639396405647</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5834394338039891</v>
+        <v>-0.0004662451507939576</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3736742055655295</v>
+        <v>-0.8126976433212816</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6743169116929791</v>
+        <v>0.7332266657725199</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3284007524710294</v>
+        <v>-0.1776940953769957</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.7010843435472163</v>
+        <v>-0.8240788238524417</v>
       </c>
     </row>
     <row r="9">
@@ -776,25 +776,25 @@
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1.669600930069056</v>
+        <v>1.209005283558507</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2352833383277406</v>
+        <v>0.03977046408309518</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6432594375399361</v>
+        <v>-0.09047251795772816</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.5274354966032907</v>
+        <v>-0.9165724439268288</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7503433108027912</v>
+        <v>0.3867380666351332</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.3123965416113836</v>
+        <v>-0.07243842529247577</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.7015685870611824</v>
+        <v>-0.5560371801300865</v>
       </c>
     </row>
     <row r="10">
@@ -815,25 +815,25 @@
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>1.730891065147622</v>
+        <v>1.130062861437753</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4330116416159654</v>
+        <v>-0.05539794059898043</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.6477213854257021</v>
+        <v>0.07504615951427213</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6000518456524457</v>
+        <v>-0.9140547832402599</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6383885938207033</v>
+        <v>0.4933998585662087</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04003215200900732</v>
+        <v>-0.1834890563187777</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7285293220646719</v>
+        <v>-0.5455705767528491</v>
       </c>
     </row>
     <row r="11">
@@ -854,25 +854,25 @@
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.449859767288235</v>
+        <v>1.12059374820647</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2133305366567849</v>
+        <v>0.227760751682495</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.5796219160624623</v>
+        <v>-0.1537240672410599</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.5368121809372755</v>
+        <v>-0.9183732659955443</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8659293663895176</v>
+        <v>0.5079417496913093</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2962614548475121</v>
+        <v>-0.1146043024770751</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.689761806188303</v>
+        <v>-0.6695956090869372</v>
       </c>
     </row>
     <row r="12">
@@ -893,25 +893,25 @@
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>1.738325730513814</v>
+        <v>1.224957701347362</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3881065909550263</v>
+        <v>0.04344177860779775</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6720786159550649</v>
+        <v>0.009124921513326629</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5643298224739709</v>
+        <v>-0.9357747657846388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.754924390501549</v>
+        <v>0.5037227105672092</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.3321110238076406</v>
+        <v>-0.176024416869176</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.5366263816083497</v>
+        <v>-0.6694473619648188</v>
       </c>
     </row>
     <row r="13">
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>1.715361265328924</v>
+        <v>1.266736868939081</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2290865501392411</v>
+        <v>0.04972882998554929</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1069032533140637</v>
+        <v>0.2516528442059101</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6057481385421987</v>
+        <v>-0.9811116578477818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.766066899292261</v>
+        <v>0.5200597151314612</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.495342402669948</v>
+        <v>-0.1529767385933603</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.044352594280658</v>
+        <v>-0.9540937817483648</v>
       </c>
     </row>
     <row r="14">
@@ -971,25 +971,25 @@
         <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>1.938234433030762</v>
+        <v>1.159963321395502</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.310778972212293</v>
+        <v>0.04859862259923993</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.9076629763014998</v>
+        <v>-0.08052556591473196</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8887129456522387</v>
+        <v>-0.7925598466030468</v>
       </c>
       <c r="I14" t="n">
-        <v>1.278116288820934</v>
+        <v>0.4964016282045501</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.33696541189068</v>
+        <v>-0.1808940627153601</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7722314774576836</v>
+        <v>-0.6509900098365123</v>
       </c>
     </row>
     <row r="15">
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>1.628946121773235</v>
+        <v>1.197958211272814</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2257449063815416</v>
+        <v>0.04939038924392095</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6364020848724627</v>
+        <v>-0.09175077038314601</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.5492194339198071</v>
+        <v>-0.6730783798857433</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6721566931084243</v>
+        <v>0.4979975707100862</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.269273497690364</v>
+        <v>-0.1732891245473148</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.6204627512187727</v>
+        <v>-0.8072372927900665</v>
       </c>
     </row>
     <row r="16">
@@ -1049,25 +1049,25 @@
         <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>1.668265798103854</v>
+        <v>1.167994658846165</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2380118835342527</v>
+        <v>0.06106862629145159</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6391983875985283</v>
+        <v>0.01223551353046053</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.782391744784222</v>
+        <v>-0.9683688248142823</v>
       </c>
       <c r="I16" t="n">
-        <v>0.749882833502816</v>
+        <v>0.5165696232480345</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2658018974951115</v>
+        <v>0.1630325828231488</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.4927468092224686</v>
+        <v>-0.9525342573084375</v>
       </c>
     </row>
     <row r="17">
@@ -1088,25 +1088,25 @@
         <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>1.726122031437292</v>
+        <v>1.261956236416649</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0003206367970924729</v>
+        <v>-0.1770205111872633</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4212825996070418</v>
+        <v>0.004403474351759969</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.8653533860530687</v>
+        <v>-0.9547032265602778</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7509265225387635</v>
+        <v>0.7314459579614494</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.4643443233907352</v>
+        <v>-0.1835320145227114</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.7257486511607053</v>
+        <v>-0.6825497159190747</v>
       </c>
     </row>
     <row r="18">
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>1.731665568053696</v>
+        <v>1.149322675691549</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2440444652521937</v>
+        <v>0.048756312608664</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6499223502917386</v>
+        <v>0.003988162168051266</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.5674045996166825</v>
+        <v>-0.8053617467238597</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7550305019657175</v>
+        <v>0.4963280151840262</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.3151215177484488</v>
+        <v>-0.2886114408622661</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.7102091075395607</v>
+        <v>-0.6044269913832188</v>
       </c>
     </row>
     <row r="19">
@@ -1166,25 +1166,25 @@
         <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>1.738093201779401</v>
+        <v>1.11223337936515</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2278507459299896</v>
+        <v>0.1275554334310705</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5348465655414085</v>
+        <v>0.1269582822116119</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.6140908955668731</v>
+        <v>-0.9167510176518766</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6919198281602895</v>
+        <v>0.3759096077992962</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01109850898232949</v>
+        <v>-0.1716079602916993</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.064328680231077</v>
+        <v>-0.6542982656753796</v>
       </c>
     </row>
     <row r="20">
@@ -1205,25 +1205,25 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1.640540764284238</v>
+        <v>1.239491573542454</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1944367554096703</v>
+        <v>0.0362708562833721</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6347604652367891</v>
+        <v>0.1376464392746909</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5533524285550723</v>
+        <v>-1.144499843123475</v>
       </c>
       <c r="I20" t="n">
-        <v>0.748006596135771</v>
+        <v>0.3796575674278277</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.3064205880303298</v>
+        <v>-0.1783872861303067</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.6995846516704636</v>
+        <v>-0.4701784622106966</v>
       </c>
     </row>
     <row r="21">
@@ -1244,25 +1244,25 @@
         <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>1.726236436267638</v>
+        <v>1.223657312167588</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3596129451978952</v>
+        <v>-0.04360132837746353</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.6656129044236124</v>
+        <v>0.1820963358980069</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.3258629644653674</v>
+        <v>-0.8443243113757648</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7559981554696722</v>
+        <v>0.4990619936882381</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.3309522744059738</v>
+        <v>-0.3721597595960529</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.8001968930413645</v>
+        <v>-0.6447241294624716</v>
       </c>
     </row>
     <row r="22">
@@ -1283,25 +1283,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2697993528160073</v>
+        <v>0.1858875998644078</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6523285221210907</v>
+        <v>0.9502230536533475</v>
       </c>
       <c r="G22" t="n">
-        <v>0.644001799924559</v>
+        <v>0.5355991361037433</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.8742533298446081</v>
+        <v>-1.074440042735732</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7824613517609527</v>
+        <v>0.6915046360047433</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4527490062450383</v>
+        <v>0.248732593453327</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.387492990446049</v>
+        <v>-1.53751745610183</v>
       </c>
     </row>
     <row r="23">
@@ -1322,25 +1322,25 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05374867460842546</v>
+        <v>0.08771450751396749</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9606646111209669</v>
+        <v>1.320228129597008</v>
       </c>
       <c r="G23" t="n">
-        <v>0.48223984483878</v>
+        <v>0.5420155808685434</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.02164610322149</v>
+        <v>-1.06786710233491</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7891025059448097</v>
+        <v>0.5678627951822818</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06708003046880992</v>
+        <v>0.1352565557201582</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.223692767327401</v>
+        <v>-1.585218274450526</v>
       </c>
     </row>
     <row r="24">
@@ -1361,25 +1361,25 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.05699619494806092</v>
+        <v>0.4206731718250522</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9632926635286458</v>
+        <v>1.273183048453528</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5441174587963155</v>
+        <v>1.020036939352075</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.8339755950991027</v>
+        <v>-1.687616004070988</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7743609157504431</v>
+        <v>0.9195523109585506</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01431896067370721</v>
+        <v>-0.1473498383989173</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.376485114993626</v>
+        <v>-1.798481831838629</v>
       </c>
     </row>
     <row r="25">
@@ -1400,25 +1400,25 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04456617862363187</v>
+        <v>0.08242377342347523</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9943136024893058</v>
+        <v>0.9379741373853718</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5636219178010108</v>
+        <v>0.7162143312378384</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6978728643033935</v>
+        <v>-1.105404601798522</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7957199579112534</v>
+        <v>0.8163298193715279</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07665291851125672</v>
+        <v>0.09086421896433482</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.687872509013548</v>
+        <v>-1.538404757145945</v>
       </c>
     </row>
     <row r="26">
@@ -1439,25 +1439,25 @@
         <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.04922932451652117</v>
+        <v>0.3264443934090758</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9788231430743307</v>
+        <v>1.063236823666748</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5470539518625872</v>
+        <v>0.4345504111157158</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9416799990959216</v>
+        <v>-1.089220288018516</v>
       </c>
       <c r="I26" t="n">
-        <v>0.757914631377253</v>
+        <v>0.6950435162077199</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0792642691394405</v>
+        <v>0.1578502478620904</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.372151421559985</v>
+        <v>-1.587900269288772</v>
       </c>
     </row>
     <row r="27">
@@ -1478,25 +1478,25 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.2277906457063329</v>
+        <v>-0.3055818665937442</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9253569472519141</v>
+        <v>1.477528423961751</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5186964094325692</v>
+        <v>0.6235422685636671</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.8893176052239956</v>
+        <v>-1.052814591006233</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7649886021104754</v>
+        <v>0.8172688988551255</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05542095830907145</v>
+        <v>0.1274279070528076</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.147360797388734</v>
+        <v>-1.687378662541599</v>
       </c>
     </row>
     <row r="28">
@@ -1517,25 +1517,25 @@
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.004730240312130077</v>
+        <v>0.0003561655866094051</v>
       </c>
       <c r="F28" t="n">
-        <v>1.107796979772385</v>
+        <v>0.8375438518494797</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5890549616677483</v>
+        <v>0.7011024517490031</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.432905108920226</v>
+        <v>-1.099030815196395</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8746493331570447</v>
+        <v>0.8288263022092803</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4825406132509768</v>
+        <v>0.3303060958396299</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.616408896642991</v>
+        <v>-1.599115356418465</v>
       </c>
     </row>
     <row r="29">
@@ -1556,25 +1556,25 @@
         <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.04727203787605343</v>
+        <v>0.08737506634957816</v>
       </c>
       <c r="F29" t="n">
-        <v>1.000893045867437</v>
+        <v>1.069231990597164</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3041480264103742</v>
+        <v>0.5831955078481108</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7361803004521539</v>
+        <v>-1.09512789648701</v>
       </c>
       <c r="I29" t="n">
-        <v>1.131708141882442</v>
+        <v>0.659754577111261</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1559933177683481</v>
+        <v>0.2673026990573527</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.809294003220372</v>
+        <v>-1.571734945868099</v>
       </c>
     </row>
     <row r="30">
@@ -1595,25 +1595,25 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2122213831953386</v>
+        <v>0.08212631365565469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9816538809258519</v>
+        <v>1.077893208563002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5737062101192035</v>
+        <v>0.5830107547709706</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.9268182051727928</v>
+        <v>-1.11843751428926</v>
       </c>
       <c r="I30" t="n">
-        <v>0.476104280661722</v>
+        <v>0.8344942635719521</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08083343051713082</v>
+        <v>0.09756041787900054</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.397701894358874</v>
+        <v>-1.556649342299053</v>
       </c>
     </row>
     <row r="31">
@@ -1634,25 +1634,25 @@
         <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3077328645510463</v>
+        <v>-0.1996917155445852</v>
       </c>
       <c r="F31" t="n">
-        <v>1.031798953061177</v>
+        <v>1.117473960395448</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8506676715318854</v>
+        <v>0.8790346035259199</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.9754617589035892</v>
+        <v>-1.157429067737754</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7896497464907807</v>
+        <v>0.8305420776306699</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06370980226606338</v>
+        <v>0.1213786785438412</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.452632431606171</v>
+        <v>-1.591306092382539</v>
       </c>
     </row>
     <row r="32">
@@ -1673,25 +1673,25 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5060956026940766</v>
+        <v>0.08195088316985964</v>
       </c>
       <c r="F32" t="n">
-        <v>1.11972840116478</v>
+        <v>1.353412359033199</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4506487315363578</v>
+        <v>0.2574658451868213</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.491304766597101</v>
+        <v>-1.085723227808028</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9060842508475254</v>
+        <v>0.8722167274030687</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1190423925827321</v>
+        <v>0.1619980045308571</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.610290587097146</v>
+        <v>-1.641326742268632</v>
       </c>
     </row>
     <row r="33">
@@ -1712,25 +1712,25 @@
         <v>11</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.04652800630801784</v>
+        <v>0.1021982888345154</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9913564666610233</v>
+        <v>1.122728846275689</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5506813050553151</v>
+        <v>0.6143433094676746</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.9565631193926549</v>
+        <v>-0.8995374606315493</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7978713290915102</v>
+        <v>0.8636666049820746</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08482484823648093</v>
+        <v>0.1796173907528224</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.421646168173357</v>
+        <v>-1.983019481429572</v>
       </c>
     </row>
     <row r="34">
@@ -1751,25 +1751,25 @@
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.08428767353820479</v>
+        <v>0.0828617760199131</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7713431278478377</v>
+        <v>1.032633426711583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5107616078356321</v>
+        <v>0.5750730876474087</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.032919987663936</v>
+        <v>-0.9984797103972693</v>
       </c>
       <c r="I34" t="n">
-        <v>1.545708679965148</v>
+        <v>0.8196326269954162</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.2603381646942633</v>
+        <v>0.07082863096961817</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.450265866351224</v>
+        <v>-1.582558732311439</v>
       </c>
     </row>
     <row r="35">
@@ -1790,25 +1790,25 @@
         <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.04131197818702914</v>
+        <v>0.07736935317177843</v>
       </c>
       <c r="F35" t="n">
-        <v>1.241325977956964</v>
+        <v>0.9057517625218396</v>
       </c>
       <c r="G35" t="n">
-        <v>0.558298368139409</v>
+        <v>0.5537276711043504</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.9664422063480312</v>
+        <v>-1.129386330878403</v>
       </c>
       <c r="I35" t="n">
-        <v>0.537696802380469</v>
+        <v>1.0531085660054</v>
       </c>
       <c r="J35" t="n">
-        <v>0.06835973565921859</v>
+        <v>0.1562689384337097</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.397947269073541</v>
+        <v>-1.616843110319613</v>
       </c>
     </row>
     <row r="36">
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.04361648661649618</v>
+        <v>0.03305718697087257</v>
       </c>
       <c r="F36" t="n">
-        <v>1.047985282085472</v>
+        <v>1.137018508463702</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8624155737293487</v>
+        <v>0.2408764077244888</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.9972605869916092</v>
+        <v>-1.280018757465957</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7763553677180475</v>
+        <v>1.829154529952163</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.2095253308448996</v>
+        <v>-0.2022148612687744</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.436347417846745</v>
+        <v>-1.757878296173297</v>
       </c>
     </row>
     <row r="37">
@@ -1868,25 +1868,25 @@
         <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.05401257808094263</v>
+        <v>0.2238348569084252</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8410965581201137</v>
+        <v>1.193788204461714</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4785790755216789</v>
+        <v>0.6436558965298449</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.9083230864584498</v>
+        <v>-1.610285371743052</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7853934122572412</v>
+        <v>0.9468074300869618</v>
       </c>
       <c r="J37" t="n">
-        <v>0.191152395622651</v>
+        <v>0.3930192354962815</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.333892281994371</v>
+        <v>-1.790821923299663</v>
       </c>
     </row>
     <row r="38">
@@ -1907,25 +1907,25 @@
         <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.05177939987620202</v>
+        <v>0.1021982888345154</v>
       </c>
       <c r="F38" t="n">
-        <v>1.249505258557575</v>
+        <v>1.122728846275689</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2251604611168587</v>
+        <v>0.6143433094676746</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.9063077529952137</v>
+        <v>-0.8995374606315493</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8229931523348789</v>
+        <v>0.8636666049820746</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1008248541286527</v>
+        <v>0.1796173907528224</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.440399744598219</v>
+        <v>-1.983019481429572</v>
       </c>
     </row>
     <row r="39">
@@ -1946,25 +1946,25 @@
         <v>17</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1200408335836147</v>
+        <v>0.0841145193792675</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9901531661567771</v>
+        <v>1.083373874388008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5631621239937499</v>
+        <v>0.5858978866440319</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.9558811031932744</v>
+        <v>-1.121532582854745</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7509485023106141</v>
+        <v>0.8175376198916695</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.1052872286069429</v>
+        <v>0.1453386637075943</v>
       </c>
       <c r="K39" t="n">
-        <v>-1.36313713860928</v>
+        <v>-1.594732893667643</v>
       </c>
     </row>
     <row r="40">
@@ -1985,25 +1985,25 @@
         <v>18</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04772277790502441</v>
+        <v>0.04023748077889854</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7029050925815054</v>
+        <v>1.075215787171572</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6789346636286092</v>
+        <v>0.578711077898978</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.906316069232357</v>
+        <v>-1.117795495956744</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7659220256591451</v>
+        <v>0.8362545575751155</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07828680345040713</v>
+        <v>0.1425795679819816</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.367459449968009</v>
+        <v>-1.555199364662252</v>
       </c>
     </row>
     <row r="41">
@@ -2024,25 +2024,25 @@
         <v>19</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.368445409958878</v>
+        <v>0.08010596207000649</v>
       </c>
       <c r="F41" t="n">
-        <v>1.408531038273834</v>
+        <v>0.9615292921217006</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5988937706920449</v>
+        <v>0.5593487039631767</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.014628972051271</v>
+        <v>-1.239170836681667</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6959977734515522</v>
+        <v>0.8393949691412943</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1905955910184723</v>
+        <v>0.2378488810796276</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.5109515146018</v>
+        <v>-1.439069183054265</v>
       </c>
     </row>
     <row r="42">
@@ -2063,25 +2063,25 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.32732053235903</v>
+        <v>1.44403793892816</v>
       </c>
       <c r="F42" t="n">
-        <v>3.142415089996304</v>
+        <v>3.285915342648191</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2108738502007433</v>
+        <v>-0.05051288900939805</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06587484682961139</v>
+        <v>-0.1049760506598077</v>
       </c>
       <c r="I42" t="n">
-        <v>-6.843021499115762</v>
+        <v>-7.546251455814745</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2227335000887093</v>
+        <v>0.5228694902960266</v>
       </c>
       <c r="K42" t="n">
-        <v>2.295527857551345</v>
+        <v>2.448913591046999</v>
       </c>
     </row>
     <row r="43">
@@ -2102,25 +2102,25 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1.698201945832508</v>
+        <v>1.59537084302877</v>
       </c>
       <c r="F43" t="n">
-        <v>3.34992497985036</v>
+        <v>3.079196054145717</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2494737285940626</v>
+        <v>-0.08423200939663374</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2889317526232951</v>
+        <v>-0.1610749948140804</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.964889272043498</v>
+        <v>-7.216018702020985</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4981237007267941</v>
+        <v>0.338907394466281</v>
       </c>
       <c r="K43" t="n">
-        <v>2.379155035738238</v>
+        <v>2.447855129464305</v>
       </c>
     </row>
     <row r="44">
@@ -2141,25 +2141,25 @@
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.465124879570784</v>
+        <v>-1.390084571907911</v>
       </c>
       <c r="F44" t="n">
-        <v>13.37105493369866</v>
+        <v>13.50441997774852</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.234143249025105</v>
+        <v>-2.587862265660624</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.640603177398208</v>
+        <v>-3.398156894785589</v>
       </c>
       <c r="I44" t="n">
-        <v>-9.770656250915483</v>
+        <v>-10.04315162686915</v>
       </c>
       <c r="J44" t="n">
-        <v>-2.465751835785578</v>
+        <v>-2.512603029377949</v>
       </c>
       <c r="K44" t="n">
-        <v>6.205223886047214</v>
+        <v>6.427402414404107</v>
       </c>
     </row>
     <row r="45">
@@ -2180,25 +2180,25 @@
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1.612709931735765</v>
+        <v>1.454554485125945</v>
       </c>
       <c r="F45" t="n">
-        <v>3.42010618186285</v>
+        <v>3.229427972024563</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.3539240716708882</v>
+        <v>-0.127564018840912</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5999460427056179</v>
+        <v>0.00805283382148464</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.021738788100057</v>
+        <v>-6.994795464258942</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1267425831016002</v>
+        <v>0.03856135660833783</v>
       </c>
       <c r="K45" t="n">
-        <v>2.616172653938364</v>
+        <v>2.391741247537029</v>
       </c>
     </row>
     <row r="46">
@@ -2219,25 +2219,25 @@
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>1.492564098710621</v>
+        <v>1.4888669116278</v>
       </c>
       <c r="F46" t="n">
-        <v>3.288065865029733</v>
+        <v>3.283690589120928</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1062588716379553</v>
+        <v>-0.1981800734815994</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2680417849727038</v>
+        <v>0.0705354635418603</v>
       </c>
       <c r="I46" t="n">
-        <v>-7.148567944247939</v>
+        <v>-7.209147232092381</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2810533699055179</v>
+        <v>0.0946168235054223</v>
       </c>
       <c r="K46" t="n">
-        <v>2.461155599670749</v>
+        <v>2.46959223942495</v>
       </c>
     </row>
     <row r="47">
@@ -2258,25 +2258,25 @@
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>1.603535283521146</v>
+        <v>1.641284023780527</v>
       </c>
       <c r="F47" t="n">
-        <v>3.265384615638864</v>
+        <v>3.283483488782153</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.3315338026761575</v>
+        <v>-0.03919515254864793</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.3398549806987898</v>
+        <v>-0.1179281456213326</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.234076046947738</v>
+        <v>-7.469627067528312</v>
       </c>
       <c r="J47" t="n">
-        <v>0.7829278803377786</v>
+        <v>0.3941789595059836</v>
       </c>
       <c r="K47" t="n">
-        <v>2.253610927134347</v>
+        <v>2.307755386301409</v>
       </c>
     </row>
     <row r="48">
@@ -2297,25 +2297,25 @@
         <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>1.446036318910741</v>
+        <v>1.618001681941427</v>
       </c>
       <c r="F48" t="n">
-        <v>3.249721891317809</v>
+        <v>3.432544415863468</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.4595598795571639</v>
+        <v>-0.09849229955710613</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09001042499614288</v>
+        <v>-0.6796077177408779</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.040936603895439</v>
+        <v>-7.684595254551109</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2885462391115455</v>
+        <v>0.838411493800407</v>
       </c>
       <c r="K48" t="n">
-        <v>2.426174300620605</v>
+        <v>2.573720139916001</v>
       </c>
     </row>
     <row r="49">
@@ -2336,25 +2336,25 @@
         <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>7.226461760635814</v>
+        <v>1.514345989537253</v>
       </c>
       <c r="F49" t="n">
-        <v>8.855074360001481</v>
+        <v>3.310240279623513</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.752436615791166</v>
+        <v>-0.1188473607316883</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.8934638147859686</v>
+        <v>-0.1943482399990039</v>
       </c>
       <c r="I49" t="n">
-        <v>-14.58295952931158</v>
+        <v>-7.305593750848383</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.8934575179353959</v>
+        <v>0.3105433643202659</v>
       </c>
       <c r="K49" t="n">
-        <v>8.040768075942216</v>
+        <v>2.483663832840576</v>
       </c>
     </row>
     <row r="50">
@@ -2375,25 +2375,25 @@
         <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>1.337272247023091</v>
+        <v>1.499032899892548</v>
       </c>
       <c r="F50" t="n">
-        <v>3.179607315437089</v>
+        <v>3.32000946036937</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.4699413233737246</v>
+        <v>-0.04374870530917674</v>
       </c>
       <c r="H50" t="n">
-        <v>0.244344440532672</v>
+        <v>-0.03019742856703905</v>
       </c>
       <c r="I50" t="n">
-        <v>-6.958814731460228</v>
+        <v>-7.630160068356585</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3112933924823145</v>
+        <v>0.39232230160259</v>
       </c>
       <c r="K50" t="n">
-        <v>2.356225483012633</v>
+        <v>2.492713559727223</v>
       </c>
     </row>
     <row r="51">
@@ -2414,25 +2414,25 @@
         <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>1.540207042574824</v>
+        <v>5.237057745127506</v>
       </c>
       <c r="F51" t="n">
-        <v>3.191927161480378</v>
+        <v>6.649304696963329</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.407464300421847</v>
+        <v>-3.247073111607547</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1309400047274804</v>
+        <v>-2.569110699891778</v>
       </c>
       <c r="I51" t="n">
-        <v>-7.016906651611285</v>
+        <v>-9.838532017076027</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3401332466604998</v>
+        <v>-1.891149389496439</v>
       </c>
       <c r="K51" t="n">
-        <v>2.221157447970836</v>
+        <v>5.659490317173103</v>
       </c>
     </row>
     <row r="52">
@@ -2453,25 +2453,25 @@
         <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1.498209184125438</v>
+        <v>1.536147891000909</v>
       </c>
       <c r="F52" t="n">
-        <v>3.114178505116598</v>
+        <v>3.1447098061246</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.4123266575618212</v>
+        <v>-0.1026196111678105</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1398159898380471</v>
+        <v>-0.1768382210395716</v>
       </c>
       <c r="I52" t="n">
-        <v>-7.319427539174905</v>
+        <v>-7.3996739101913</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3262252497557826</v>
+        <v>0.3176494050016642</v>
       </c>
       <c r="K52" t="n">
-        <v>2.653300369304382</v>
+        <v>2.680601114100106</v>
       </c>
     </row>
     <row r="53">
@@ -2492,25 +2492,25 @@
         <v>11</v>
       </c>
       <c r="E53" t="n">
-        <v>1.475050138771979</v>
+        <v>1.469845424738289</v>
       </c>
       <c r="F53" t="n">
-        <v>3.110085211275901</v>
+        <v>3.107016680174159</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.3025525443276957</v>
+        <v>-0.009259248772147684</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1714627235098599</v>
+        <v>-0.1475226257900193</v>
       </c>
       <c r="I53" t="n">
-        <v>-7.46545864031025</v>
+        <v>-7.398936378675188</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3651915924876976</v>
+        <v>0.3404263595827551</v>
       </c>
       <c r="K53" t="n">
-        <v>2.646213751284914</v>
+        <v>2.638418268463275</v>
       </c>
     </row>
     <row r="54">
@@ -2531,25 +2531,25 @@
         <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>1.336080082743648</v>
+        <v>1.44403793892816</v>
       </c>
       <c r="F54" t="n">
-        <v>3.187563826224037</v>
+        <v>3.285915342648191</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.4361261909392025</v>
+        <v>-0.05051288900939805</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1362761139539637</v>
+        <v>-0.1049760506598077</v>
       </c>
       <c r="I54" t="n">
-        <v>-7.045330957678883</v>
+        <v>-7.546251455814745</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4683712998544637</v>
+        <v>0.5228694902960266</v>
       </c>
       <c r="K54" t="n">
-        <v>2.353159179976385</v>
+        <v>2.448913591046999</v>
       </c>
     </row>
     <row r="55">
@@ -2570,25 +2570,25 @@
         <v>13</v>
       </c>
       <c r="E55" t="n">
-        <v>1.463128952516158</v>
+        <v>1.55360763855106</v>
       </c>
       <c r="F55" t="n">
-        <v>3.259305389072576</v>
+        <v>3.337155581069396</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.4347338940684543</v>
+        <v>-0.06836575501290654</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1094258383291186</v>
+        <v>-0.1492141341140767</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.14571591073138</v>
+        <v>-7.546121210331729</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3084405377806056</v>
+        <v>0.3550172164145409</v>
       </c>
       <c r="K55" t="n">
-        <v>2.440154247395333</v>
+        <v>2.517911567502699</v>
       </c>
     </row>
     <row r="56">
@@ -2609,25 +2609,25 @@
         <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>1.350505925587548</v>
+        <v>1.44466349121681</v>
       </c>
       <c r="F56" t="n">
-        <v>3.181349140456643</v>
+        <v>3.261299923218372</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2433406865758479</v>
+        <v>0.09896818269865462</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1874356706489743</v>
+        <v>-0.1163623953304107</v>
       </c>
       <c r="I56" t="n">
-        <v>-6.938016972557248</v>
+        <v>-7.195833207708735</v>
       </c>
       <c r="J56" t="n">
-        <v>0.09421409362470672</v>
+        <v>0.06186808291351231</v>
       </c>
       <c r="K56" t="n">
-        <v>2.367837251209376</v>
+        <v>2.445397110189843</v>
       </c>
     </row>
     <row r="57">
@@ -2648,25 +2648,25 @@
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>1.521325595382135</v>
+        <v>1.513439844066869</v>
       </c>
       <c r="F57" t="n">
-        <v>3.143437822001269</v>
+        <v>3.128297767743964</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3915364847659518</v>
+        <v>-0.1294691147154321</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1561899770620524</v>
+        <v>-0.2030282447142661</v>
       </c>
       <c r="I57" t="n">
-        <v>-7.216960045038821</v>
+        <v>-7.022419160636089</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3717123717474192</v>
+        <v>0.3159531125818678</v>
       </c>
       <c r="K57" t="n">
-        <v>2.415826694435158</v>
+        <v>2.397190436606783</v>
       </c>
     </row>
     <row r="58">
@@ -2687,25 +2687,25 @@
         <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>1.446036318910741</v>
+        <v>1.508158915403333</v>
       </c>
       <c r="F58" t="n">
-        <v>3.249721891317809</v>
+        <v>3.304051897373304</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.4595598795571639</v>
+        <v>-0.1250320509239081</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09001042499614288</v>
+        <v>-0.2005346945619966</v>
       </c>
       <c r="I58" t="n">
-        <v>-7.040936603895439</v>
+        <v>-7.268493809976309</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2885462391115455</v>
+        <v>0.30435326465208</v>
       </c>
       <c r="K58" t="n">
-        <v>2.426174300620605</v>
+        <v>2.477472606445807</v>
       </c>
     </row>
     <row r="59">
@@ -2726,25 +2726,25 @@
         <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>1.478508452388473</v>
+        <v>1.53839363430594</v>
       </c>
       <c r="F59" t="n">
-        <v>3.254512621635578</v>
+        <v>3.310528049250014</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4121221418389709</v>
+        <v>-0.07791238864831926</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1472781430173727</v>
+        <v>-0.1519200735073468</v>
       </c>
       <c r="I59" t="n">
-        <v>-7.249295445679341</v>
+        <v>-7.462935709701918</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3333736685719087</v>
+        <v>0.3456553514424245</v>
       </c>
       <c r="K59" t="n">
-        <v>2.447716484827822</v>
+        <v>2.498158272593964</v>
       </c>
     </row>
     <row r="60">
@@ -2765,25 +2765,25 @@
         <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>1.538266779436836</v>
+        <v>1.568824605219863</v>
       </c>
       <c r="F60" t="n">
-        <v>3.119164162075374</v>
+        <v>3.339451952049249</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3583483658521641</v>
+        <v>-0.05312315403990761</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1961104553410849</v>
+        <v>-0.1263998260296463</v>
       </c>
       <c r="I60" t="n">
-        <v>-7.576179977747797</v>
+        <v>-7.647672088546061</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4010664328126266</v>
+        <v>0.3914791446522312</v>
       </c>
       <c r="K60" t="n">
-        <v>2.679937434017492</v>
+        <v>2.52740267486355</v>
       </c>
     </row>
     <row r="61">
@@ -2804,25 +2804,25 @@
         <v>19</v>
       </c>
       <c r="E61" t="n">
-        <v>1.446036318910741</v>
+        <v>1.550742627850137</v>
       </c>
       <c r="F61" t="n">
-        <v>3.249721891317809</v>
+        <v>3.346637642316797</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4595598795571639</v>
+        <v>-0.08245227875019751</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09001042499614288</v>
+        <v>-0.1579522681393684</v>
       </c>
       <c r="I61" t="n">
-        <v>-7.040936603895439</v>
+        <v>-7.524004535540515</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2885462391115455</v>
+        <v>0.3469340304668321</v>
       </c>
       <c r="K61" t="n">
-        <v>2.426174300620605</v>
+        <v>2.520059618046223</v>
       </c>
     </row>
     <row r="62">
@@ -2843,25 +2843,25 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.799716765672989</v>
+        <v>-2.354873005475878</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.727809838629044</v>
+        <v>-4.048259242947299</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.888699565553754</v>
+        <v>-5.237005239957561</v>
       </c>
       <c r="H62" t="n">
-        <v>6.59663267985889</v>
+        <v>5.889550400376335</v>
       </c>
       <c r="I62" t="n">
-        <v>5.02635307957664</v>
+        <v>4.319267227679915</v>
       </c>
       <c r="J62" t="n">
-        <v>5.580990031622774</v>
+        <v>4.873908349394026</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.787779587105765</v>
+        <v>-3.442635571395587</v>
       </c>
     </row>
     <row r="63">
@@ -2882,25 +2882,25 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.737826866399352</v>
+        <v>-4.148716945890452</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.665919358543396</v>
+        <v>-5.842109070772116</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.14918314300094</v>
+        <v>-7.030852961533219</v>
       </c>
       <c r="H63" t="n">
-        <v>6.437564073247396</v>
+        <v>12.67650733644137</v>
       </c>
       <c r="I63" t="n">
-        <v>5.081637437025568</v>
+        <v>4.790815555008366</v>
       </c>
       <c r="J63" t="n">
-        <v>5.759603590033557</v>
+        <v>4.790813492831083</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.72588674924951</v>
+        <v>-5.23648596870696</v>
       </c>
     </row>
     <row r="64">
@@ -2921,25 +2921,25 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>2.657934278303269</v>
+        <v>-2.557155095290463</v>
       </c>
       <c r="F64" t="n">
-        <v>-10.35144326185296</v>
+        <v>-4.250544118723965</v>
       </c>
       <c r="G64" t="n">
-        <v>-17.80953734500159</v>
+        <v>-5.439288503369132</v>
       </c>
       <c r="H64" t="n">
-        <v>10.64010382749379</v>
+        <v>5.936008878091298</v>
       </c>
       <c r="I64" t="n">
-        <v>9.069824615634213</v>
+        <v>4.947947849287241</v>
       </c>
       <c r="J64" t="n">
-        <v>9.624458570891111</v>
+        <v>5.007918076337933</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.831397554395241</v>
+        <v>-3.644920190252995</v>
       </c>
     </row>
     <row r="65">
@@ -2960,25 +2960,25 @@
         <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.576105504840351</v>
+        <v>-2.59460428854705</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.504199826995041</v>
+        <v>-3.970659574857799</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.40166238608883</v>
+        <v>-5.157951223461672</v>
       </c>
       <c r="H65" t="n">
-        <v>6.088139765872786</v>
+        <v>5.8576990747689</v>
       </c>
       <c r="I65" t="n">
-        <v>5.478999219317775</v>
+        <v>4.287433511393773</v>
       </c>
       <c r="J65" t="n">
-        <v>5.4789989816803</v>
+        <v>4.84206080040096</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.564167804132783</v>
+        <v>-3.264000278949557</v>
       </c>
     </row>
     <row r="66">
@@ -2999,25 +2999,25 @@
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.674833279262763</v>
+        <v>-2.442443893984801</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.602929130973053</v>
+        <v>-4.135828541956124</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.22229322638674</v>
+        <v>-5.324573322933947</v>
       </c>
       <c r="H66" t="n">
-        <v>6.582956501859424</v>
+        <v>5.85342239003735</v>
       </c>
       <c r="I66" t="n">
-        <v>5.012674844716165</v>
+        <v>4.604534245424079</v>
       </c>
       <c r="J66" t="n">
-        <v>5.567313731066863</v>
+        <v>4.975069789932707</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.662895123266772</v>
+        <v>-3.530205026349703</v>
       </c>
     </row>
     <row r="67">
@@ -3038,25 +3038,25 @@
         <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.806533405157877</v>
+        <v>-2.620758804142046</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.18853134163582</v>
+        <v>-4.34645801181454</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.860524659085925</v>
+        <v>-5.167265348123434</v>
       </c>
       <c r="H67" t="n">
-        <v>6.337342332913764</v>
+        <v>6.153267581216649</v>
       </c>
       <c r="I67" t="n">
-        <v>4.767062703117953</v>
+        <v>4.58298272067032</v>
       </c>
       <c r="J67" t="n">
-        <v>5.321700085088166</v>
+        <v>5.137626261794089</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.570530388043926</v>
+        <v>-3.73942066390166</v>
       </c>
     </row>
     <row r="68">
@@ -3077,25 +3077,25 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.926173093550119</v>
+        <v>-2.388651590859094</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.854266871523313</v>
+        <v>-4.082039619577784</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.20224510804022</v>
+        <v>-5.27078207465643</v>
       </c>
       <c r="H68" t="n">
-        <v>6.747067238916738</v>
+        <v>5.93459329171865</v>
       </c>
       <c r="I68" t="n">
-        <v>5.63344558510878</v>
+        <v>4.364323532886662</v>
       </c>
       <c r="J68" t="n">
-        <v>5.516370782342827</v>
+        <v>4.918954413271084</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.914236645112477</v>
+        <v>-3.476418856513841</v>
       </c>
     </row>
     <row r="69">
@@ -3116,25 +3116,25 @@
         <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.810104005795634</v>
+        <v>-2.520312298375188</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.530048774266615</v>
+        <v>-4.048734221586709</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.962556151714063</v>
+        <v>-5.281974286007033</v>
       </c>
       <c r="H69" t="n">
-        <v>6.35289643549395</v>
+        <v>5.991326052802793</v>
       </c>
       <c r="I69" t="n">
-        <v>4.782618233278852</v>
+        <v>4.42104399201446</v>
       </c>
       <c r="J69" t="n">
-        <v>5.33725279700579</v>
+        <v>4.975684109895745</v>
       </c>
       <c r="K69" t="n">
-        <v>-2.170078941294516</v>
+        <v>-3.537055648440671</v>
       </c>
     </row>
     <row r="70">
@@ -3155,25 +3155,25 @@
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.410316113237903</v>
+        <v>-2.325922027527565</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.338406731364446</v>
+        <v>-4.019312518218682</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.15573085988847</v>
+        <v>-5.208056204211404</v>
       </c>
       <c r="H70" t="n">
-        <v>6.112231678030006</v>
+        <v>5.666944683686261</v>
       </c>
       <c r="I70" t="n">
-        <v>4.75630912645392</v>
+        <v>4.311023149387886</v>
       </c>
       <c r="J70" t="n">
-        <v>5.434268494107696</v>
+        <v>4.988983297108136</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.398378751233889</v>
+        <v>-3.413688871914454</v>
       </c>
     </row>
     <row r="71">
@@ -3194,25 +3194,25 @@
         <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.718100791139904</v>
+        <v>1.857649882100439</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.64618867626897</v>
+        <v>-12.49496757419448</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.2515684790717</v>
+        <v>-13.10410754855124</v>
       </c>
       <c r="H71" t="n">
-        <v>6.635975992468343</v>
+        <v>10.45085529057612</v>
       </c>
       <c r="I71" t="n">
-        <v>5.065684899339951</v>
+        <v>9.201980538580186</v>
       </c>
       <c r="J71" t="n">
-        <v>5.620326515647692</v>
+        <v>9.57250311568005</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.706148230534347</v>
+        <v>-5.484003049571252</v>
       </c>
     </row>
     <row r="72">
@@ -3233,25 +3233,25 @@
         <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.558133561480842</v>
+        <v>-2.521192532956187</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.486224282616122</v>
+        <v>-4.214579754906556</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.82527481463509</v>
+        <v>-5.40332472278979</v>
       </c>
       <c r="H72" t="n">
-        <v>6.667240384044753</v>
+        <v>6.111315086602027</v>
       </c>
       <c r="I72" t="n">
-        <v>5.096959484170606</v>
+        <v>4.541032670068186</v>
       </c>
       <c r="J72" t="n">
-        <v>5.651598863491255</v>
+        <v>5.095672322103614</v>
       </c>
       <c r="K72" t="n">
-        <v>-2.546193905653115</v>
+        <v>-3.608955776150681</v>
       </c>
     </row>
     <row r="73">
@@ -3272,25 +3272,25 @@
         <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.954629807859813</v>
+        <v>-2.540088849165779</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.88272926513637</v>
+        <v>-4.207276446059554</v>
       </c>
       <c r="G73" t="n">
-        <v>-12.05260970206698</v>
+        <v>-5.371039863693498</v>
       </c>
       <c r="H73" t="n">
-        <v>13.07020236369293</v>
+        <v>6.103502871378291</v>
       </c>
       <c r="I73" t="n">
-        <v>4.8812120913799</v>
+        <v>4.533216336241808</v>
       </c>
       <c r="J73" t="n">
-        <v>4.881219323755419</v>
+        <v>5.087859727772276</v>
       </c>
       <c r="K73" t="n">
-        <v>-3.942693193835188</v>
+        <v>-3.606229426614465</v>
       </c>
     </row>
     <row r="74">
@@ -3311,25 +3311,25 @@
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.944869953039774</v>
+        <v>-2.398289895401555</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.872965589176148</v>
+        <v>-3.930056843187155</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.906562660008692</v>
+        <v>-5.000936234984615</v>
       </c>
       <c r="H74" t="n">
-        <v>6.747745353900077</v>
+        <v>5.717560061845115</v>
       </c>
       <c r="I74" t="n">
-        <v>5.177464260068374</v>
+        <v>4.14727705413871</v>
       </c>
       <c r="J74" t="n">
-        <v>5.732105095747946</v>
+        <v>4.701917372957234</v>
       </c>
       <c r="K74" t="n">
-        <v>-2.932931274994459</v>
+        <v>-3.237486963762182</v>
       </c>
     </row>
     <row r="75">
@@ -3350,25 +3350,25 @@
         <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.810104005795634</v>
+        <v>-2.303400899317046</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.530048774266615</v>
+        <v>-3.996788250997747</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.962556151714063</v>
+        <v>-5.185533148156413</v>
       </c>
       <c r="H75" t="n">
-        <v>6.35289643549395</v>
+        <v>5.820932350475474</v>
       </c>
       <c r="I75" t="n">
-        <v>4.782618233278852</v>
+        <v>4.250649579566653</v>
       </c>
       <c r="J75" t="n">
-        <v>5.33725279700579</v>
+        <v>4.805289235133316</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.170078941294516</v>
+        <v>-3.391163166560733</v>
       </c>
     </row>
     <row r="76">
@@ -3389,25 +3389,25 @@
         <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.842625478633925</v>
+        <v>-1.61144387489408</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.770707494257579</v>
+        <v>-2.93340633321661</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.656079077868615</v>
+        <v>-11.17704139744338</v>
       </c>
       <c r="H76" t="n">
-        <v>6.561998451076073</v>
+        <v>7.117299128533658</v>
       </c>
       <c r="I76" t="n">
-        <v>4.991722852633635</v>
+        <v>5.547015924120311</v>
       </c>
       <c r="J76" t="n">
-        <v>5.546356075764644</v>
+        <v>6.10165605971779</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.830675962008667</v>
+        <v>-3.044108518725075</v>
       </c>
     </row>
     <row r="77">
@@ -3428,25 +3428,25 @@
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.439919701733313</v>
+        <v>-4.649157628130071</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.368015099260511</v>
+        <v>-6.316343511567091</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.51074207424697</v>
+        <v>-7.480104268126068</v>
       </c>
       <c r="H77" t="n">
-        <v>10.9761951735515</v>
+        <v>11.09076875958734</v>
       </c>
       <c r="I77" t="n">
-        <v>3.403367999699049</v>
+        <v>2.588450909712944</v>
       </c>
       <c r="J77" t="n">
-        <v>10.36705562805401</v>
+        <v>10.48163741990906</v>
       </c>
       <c r="K77" t="n">
-        <v>-4.42798286870828</v>
+        <v>-5.715294520992788</v>
       </c>
     </row>
     <row r="78">
@@ -3467,25 +3467,25 @@
         <v>16</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.863499439262818</v>
+        <v>-2.478380963775356</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.791588204403908</v>
+        <v>-3.903269960661565</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.27834384254341</v>
+        <v>-5.328150622452376</v>
       </c>
       <c r="H78" t="n">
-        <v>6.790292873121744</v>
+        <v>6.066327862908945</v>
       </c>
       <c r="I78" t="n">
-        <v>5.220010162891136</v>
+        <v>4.496044063816782</v>
       </c>
       <c r="J78" t="n">
-        <v>5.77464988969987</v>
+        <v>5.050685913163816</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.851555717424241</v>
+        <v>-3.903261307556849</v>
       </c>
     </row>
     <row r="79">
@@ -3506,25 +3506,25 @@
         <v>17</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.662662344198501</v>
+        <v>-2.529398008902955</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.590756053600574</v>
+        <v>-4.095729382336724</v>
       </c>
       <c r="G79" t="n">
-        <v>-10.54074500647868</v>
+        <v>-5.233440340498476</v>
       </c>
       <c r="H79" t="n">
-        <v>6.676934854648593</v>
+        <v>5.910916125729945</v>
       </c>
       <c r="I79" t="n">
-        <v>5.106654833695678</v>
+        <v>4.340634302977699</v>
       </c>
       <c r="J79" t="n">
-        <v>5.661291333082731</v>
+        <v>4.895273354426982</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.650726153896271</v>
+        <v>-3.288289993577846</v>
       </c>
     </row>
     <row r="80">
@@ -3545,25 +3545,25 @@
         <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.653455274156983</v>
+        <v>-2.452350362343799</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.5815451980311</v>
+        <v>-4.221870505434844</v>
       </c>
       <c r="G80" t="n">
-        <v>-10.48146168936396</v>
+        <v>-5.145578765270873</v>
       </c>
       <c r="H80" t="n">
-        <v>6.64795280889855</v>
+        <v>5.965825304471263</v>
       </c>
       <c r="I80" t="n">
-        <v>5.077670218542577</v>
+        <v>4.395543699247942</v>
       </c>
       <c r="J80" t="n">
-        <v>5.632308616406159</v>
+        <v>4.95018345878441</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.641514697666156</v>
+        <v>-3.491816139222141</v>
       </c>
     </row>
     <row r="81">
@@ -3584,25 +3584,25 @@
         <v>19</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2105632700875275</v>
+        <v>-2.594608896450783</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2105656856540325</v>
+        <v>-4.287992240316698</v>
       </c>
       <c r="G81" t="n">
-        <v>-13.88078969204577</v>
+        <v>-5.476739166810409</v>
       </c>
       <c r="H81" t="n">
-        <v>7.981368397791875</v>
+        <v>6.20919867807838</v>
       </c>
       <c r="I81" t="n">
-        <v>6.411090075526181</v>
+        <v>4.638911734926052</v>
       </c>
       <c r="J81" t="n">
-        <v>6.965726554157418</v>
+        <v>5.19355566686358</v>
       </c>
       <c r="K81" t="n">
-        <v>-7.056273839152826</v>
+        <v>-3.682367373888102</v>
       </c>
     </row>
     <row r="82">
@@ -3623,25 +3623,25 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-4.597656829593599</v>
+        <v>-4.692975241408221</v>
       </c>
       <c r="F82" t="n">
-        <v>9.151833440914274</v>
+        <v>9.146036978406739</v>
       </c>
       <c r="G82" t="n">
-        <v>10.00945267584854</v>
+        <v>10.35512019200382</v>
       </c>
       <c r="H82" t="n">
-        <v>-5.884349938135083</v>
+        <v>-6.162295200246565</v>
       </c>
       <c r="I82" t="n">
-        <v>2.49641564869867</v>
+        <v>2.422705665084677</v>
       </c>
       <c r="J82" t="n">
-        <v>-5.120969642305994</v>
+        <v>-5.148189702335327</v>
       </c>
       <c r="K82" t="n">
-        <v>-6.05475184456734</v>
+        <v>-5.920448699545075</v>
       </c>
     </row>
     <row r="83">
@@ -3662,25 +3662,25 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.596016776133064</v>
+        <v>-4.561427927598588</v>
       </c>
       <c r="F83" t="n">
-        <v>9.341457171633373</v>
+        <v>9.280012078340432</v>
       </c>
       <c r="G83" t="n">
-        <v>10.20542535465107</v>
+        <v>10.45717935454363</v>
       </c>
       <c r="H83" t="n">
-        <v>-5.985712814577233</v>
+        <v>-6.036002774596113</v>
       </c>
       <c r="I83" t="n">
-        <v>2.539713449914269</v>
+        <v>2.559334428897024</v>
       </c>
       <c r="J83" t="n">
-        <v>-5.390034574831302</v>
+        <v>-5.823662796474951</v>
       </c>
       <c r="K83" t="n">
-        <v>-6.114858381771401</v>
+        <v>-5.875442411787124</v>
       </c>
     </row>
     <row r="84">
@@ -3701,25 +3701,25 @@
         <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>-4.294734630904344</v>
+        <v>-4.626134529960478</v>
       </c>
       <c r="F84" t="n">
-        <v>9.23844011374945</v>
+        <v>9.366321133754582</v>
       </c>
       <c r="G84" t="n">
-        <v>9.810062742888018</v>
+        <v>10.56914327754202</v>
       </c>
       <c r="H84" t="n">
-        <v>-5.485423918105511</v>
+        <v>-6.122911267953057</v>
       </c>
       <c r="I84" t="n">
-        <v>2.548973082841576</v>
+        <v>2.693198139070709</v>
       </c>
       <c r="J84" t="n">
-        <v>-5.329598657839098</v>
+        <v>-5.540087628730492</v>
       </c>
       <c r="K84" t="n">
-        <v>-6.487736627320218</v>
+        <v>-6.339542625548813</v>
       </c>
     </row>
     <row r="85">
@@ -3740,25 +3740,25 @@
         <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.647367679086361</v>
+        <v>-4.524149012819003</v>
       </c>
       <c r="F85" t="n">
-        <v>9.721336121073696</v>
+        <v>9.432782258676115</v>
       </c>
       <c r="G85" t="n">
-        <v>10.62368031122567</v>
+        <v>10.01842366959316</v>
       </c>
       <c r="H85" t="n">
-        <v>-6.246153212691966</v>
+        <v>-6.206769822272773</v>
       </c>
       <c r="I85" t="n">
-        <v>2.655181324712745</v>
+        <v>2.660621402698817</v>
       </c>
       <c r="J85" t="n">
-        <v>-5.160566992883911</v>
+        <v>-5.378662564596028</v>
       </c>
       <c r="K85" t="n">
-        <v>-6.946121471858809</v>
+        <v>-6.002247206685366</v>
       </c>
     </row>
     <row r="86">
@@ -3779,25 +3779,25 @@
         <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>-4.399771298743891</v>
+        <v>-4.556282192756135</v>
       </c>
       <c r="F86" t="n">
-        <v>9.23703260735382</v>
+        <v>9.599849589874816</v>
       </c>
       <c r="G86" t="n">
-        <v>9.871723854650538</v>
+        <v>10.15185970659597</v>
       </c>
       <c r="H86" t="n">
-        <v>-5.896549804498375</v>
+        <v>-6.357000909960103</v>
       </c>
       <c r="I86" t="n">
-        <v>2.614457876686191</v>
+        <v>2.645924221670279</v>
       </c>
       <c r="J86" t="n">
-        <v>-5.313726674615896</v>
+        <v>-5.031367591894901</v>
       </c>
       <c r="K86" t="n">
-        <v>-6.113181055429562</v>
+        <v>-6.452989811580673</v>
       </c>
     </row>
     <row r="87">
@@ -3818,25 +3818,25 @@
         <v>5</v>
       </c>
       <c r="E87" t="n">
-        <v>-4.541682821016019</v>
+        <v>-5.337454377064898</v>
       </c>
       <c r="F87" t="n">
-        <v>9.234966499053769</v>
+        <v>9.984173434835276</v>
       </c>
       <c r="G87" t="n">
-        <v>10.54238375453443</v>
+        <v>12.48336320417753</v>
       </c>
       <c r="H87" t="n">
-        <v>-6.038460748408228</v>
+        <v>-7.020071305035854</v>
       </c>
       <c r="I87" t="n">
-        <v>2.513494668394486</v>
+        <v>2.897488874496027</v>
       </c>
       <c r="J87" t="n">
-        <v>-5.455638101334245</v>
+        <v>-6.19196200181802</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.255092337328307</v>
+        <v>-6.815547101328558</v>
       </c>
     </row>
     <row r="88">
@@ -3857,25 +3857,25 @@
         <v>6</v>
       </c>
       <c r="E88" t="n">
-        <v>-4.621003699991641</v>
+        <v>-4.600144198499843</v>
       </c>
       <c r="F88" t="n">
-        <v>9.244208139872937</v>
+        <v>9.365023366581731</v>
       </c>
       <c r="G88" t="n">
-        <v>10.62094900046767</v>
+        <v>10.51947351421858</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.117786345965474</v>
+        <v>-6.096922440572581</v>
       </c>
       <c r="I88" t="n">
-        <v>2.742977225781676</v>
+        <v>2.640200329310621</v>
       </c>
       <c r="J88" t="n">
-        <v>-5.534966074398249</v>
+        <v>-5.514100297497979</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.334420136720552</v>
+        <v>-6.313554388562995</v>
       </c>
     </row>
     <row r="89">
@@ -3896,25 +3896,25 @@
         <v>7</v>
       </c>
       <c r="E89" t="n">
-        <v>-4.777945976838557</v>
+        <v>-4.688695689426663</v>
       </c>
       <c r="F89" t="n">
-        <v>9.346069440553357</v>
+        <v>9.129921891511419</v>
       </c>
       <c r="G89" t="n">
-        <v>11.22737133960579</v>
+        <v>10.35646484655009</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.274725663173668</v>
+        <v>-6.158015828256273</v>
       </c>
       <c r="I89" t="n">
-        <v>2.662479479618924</v>
+        <v>2.420409024516219</v>
       </c>
       <c r="J89" t="n">
-        <v>-5.691905796978221</v>
+        <v>-5.14391025907448</v>
       </c>
       <c r="K89" t="n">
-        <v>-6.491360287733349</v>
+        <v>-5.916169306332186</v>
       </c>
     </row>
     <row r="90">
@@ -3935,25 +3935,25 @@
         <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>-5.307409847579205</v>
+        <v>-4.793577827234905</v>
       </c>
       <c r="F90" t="n">
-        <v>10.60384697957561</v>
+        <v>9.610296820723505</v>
       </c>
       <c r="G90" t="n">
-        <v>11.47330916014728</v>
+        <v>10.92145596310951</v>
       </c>
       <c r="H90" t="n">
-        <v>-6.588975968588314</v>
+        <v>-6.444474058356987</v>
       </c>
       <c r="I90" t="n">
-        <v>2.805370877803806</v>
+        <v>2.632319836649254</v>
       </c>
       <c r="J90" t="n">
-        <v>-6.098619416530133</v>
+        <v>-5.813198199135925</v>
       </c>
       <c r="K90" t="n">
-        <v>-6.887559363969128</v>
+        <v>-6.112873945067119</v>
       </c>
     </row>
     <row r="91">
@@ -3974,25 +3974,25 @@
         <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>-4.670720296477404</v>
+        <v>-5.337454377064898</v>
       </c>
       <c r="F91" t="n">
-        <v>9.456591741168204</v>
+        <v>9.984173434835276</v>
       </c>
       <c r="G91" t="n">
-        <v>10.56968833163281</v>
+        <v>12.48336320417753</v>
       </c>
       <c r="H91" t="n">
-        <v>-6.151063842420273</v>
+        <v>-7.020071305035854</v>
       </c>
       <c r="I91" t="n">
-        <v>2.736867171347857</v>
+        <v>2.897488874496027</v>
       </c>
       <c r="J91" t="n">
-        <v>-5.722067106470188</v>
+        <v>-6.19196200181802</v>
       </c>
       <c r="K91" t="n">
-        <v>-6.219323190219264</v>
+        <v>-6.815547101328558</v>
       </c>
     </row>
     <row r="92">
@@ -4013,25 +4013,25 @@
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.890404303960207</v>
+        <v>-1.913230159141056</v>
       </c>
       <c r="F92" t="n">
-        <v>12.96195899385702</v>
+        <v>12.8505426071795</v>
       </c>
       <c r="G92" t="n">
-        <v>15.70455677083163</v>
+        <v>15.53332355252671</v>
       </c>
       <c r="H92" t="n">
-        <v>-11.79482981376529</v>
+        <v>-11.77833215663437</v>
       </c>
       <c r="I92" t="n">
-        <v>6.483406686993074</v>
+        <v>6.110717932967423</v>
       </c>
       <c r="J92" t="n">
-        <v>-10.22454902051021</v>
+        <v>-9.942594730858586</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.24019146102594</v>
+        <v>-10.86046357263617</v>
       </c>
     </row>
     <row r="93">
@@ -4052,25 +4052,25 @@
         <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>-4.562341873552755</v>
+        <v>-4.652276191903376</v>
       </c>
       <c r="F93" t="n">
-        <v>9.353210791106868</v>
+        <v>9.290360072371158</v>
       </c>
       <c r="G93" t="n">
-        <v>10.47476097474595</v>
+        <v>10.71051943288687</v>
       </c>
       <c r="H93" t="n">
-        <v>-5.860424041880052</v>
+        <v>-6.455942582679079</v>
       </c>
       <c r="I93" t="n">
-        <v>2.619600351721388</v>
+        <v>2.549729705731164</v>
       </c>
       <c r="J93" t="n">
-        <v>-5.70674162108513</v>
+        <v>-5.578247261274807</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.318080726752696</v>
+        <v>-5.86415685175402</v>
       </c>
     </row>
     <row r="94">
@@ -4091,25 +4091,25 @@
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.634251072881967</v>
+        <v>-4.574882743152784</v>
       </c>
       <c r="F94" t="n">
-        <v>9.416861970298896</v>
+        <v>8.983991384621497</v>
       </c>
       <c r="G94" t="n">
-        <v>10.4803688373059</v>
+        <v>10.50435059624984</v>
       </c>
       <c r="H94" t="n">
-        <v>-6.131028592989715</v>
+        <v>-6.11924216340345</v>
       </c>
       <c r="I94" t="n">
-        <v>2.763896810943202</v>
+        <v>2.325372808455538</v>
       </c>
       <c r="J94" t="n">
-        <v>-5.548206088951408</v>
+        <v>-5.288164070123294</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.347660270866953</v>
+        <v>-5.831442671988847</v>
       </c>
     </row>
     <row r="95">
@@ -4130,25 +4130,25 @@
         <v>13</v>
       </c>
       <c r="E95" t="n">
-        <v>-4.744792034148659</v>
+        <v>-4.689157597021164</v>
       </c>
       <c r="F95" t="n">
-        <v>9.30166941132287</v>
+        <v>9.103933396593105</v>
       </c>
       <c r="G95" t="n">
-        <v>11.2030805735606</v>
+        <v>10.76609647523124</v>
       </c>
       <c r="H95" t="n">
-        <v>-6.241570122705486</v>
+        <v>-6.233520411006642</v>
       </c>
       <c r="I95" t="n">
-        <v>2.598513780415644</v>
+        <v>2.400792320506246</v>
       </c>
       <c r="J95" t="n">
-        <v>-5.658747998847613</v>
+        <v>-5.402441619666223</v>
       </c>
       <c r="K95" t="n">
-        <v>-6.458202191957193</v>
+        <v>-5.945722598243434</v>
       </c>
     </row>
     <row r="96">
@@ -4169,25 +4169,25 @@
         <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>-4.646403873793361</v>
+        <v>-4.643574444819047</v>
       </c>
       <c r="F96" t="n">
-        <v>9.525278305328776</v>
+        <v>9.331586884840108</v>
       </c>
       <c r="G96" t="n">
-        <v>10.49825050454299</v>
+        <v>10.59646510880957</v>
       </c>
       <c r="H96" t="n">
-        <v>-5.909655855512684</v>
+        <v>-6.326196370100549</v>
       </c>
       <c r="I96" t="n">
-        <v>2.736954965107226</v>
+        <v>2.661469993469594</v>
       </c>
       <c r="J96" t="n">
-        <v>-5.983025986322235</v>
+        <v>-5.498086639192976</v>
       </c>
       <c r="K96" t="n">
-        <v>-6.221455394681451</v>
+        <v>-6.121671770346622</v>
       </c>
     </row>
     <row r="97">
@@ -4208,25 +4208,25 @@
         <v>15</v>
       </c>
       <c r="E97" t="n">
-        <v>-4.710599507029636</v>
+        <v>-4.573269836027408</v>
       </c>
       <c r="F97" t="n">
-        <v>9.440452591913946</v>
+        <v>9.43252462392376</v>
       </c>
       <c r="G97" t="n">
-        <v>10.71757776582662</v>
+        <v>10.22399152629025</v>
       </c>
       <c r="H97" t="n">
-        <v>-6.207377607770822</v>
+        <v>-6.25589475388839</v>
       </c>
       <c r="I97" t="n">
-        <v>2.808507419171717</v>
+        <v>2.651777763801409</v>
       </c>
       <c r="J97" t="n">
-        <v>-5.624555303490406</v>
+        <v>-5.427789452401571</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.424009165157349</v>
+        <v>-6.051375233906889</v>
       </c>
     </row>
     <row r="98">
@@ -4247,25 +4247,25 @@
         <v>16</v>
       </c>
       <c r="E98" t="n">
-        <v>-4.555427496545206</v>
+        <v>-6.842963526329775</v>
       </c>
       <c r="F98" t="n">
-        <v>9.436720928834163</v>
+        <v>12.99674239562975</v>
       </c>
       <c r="G98" t="n">
-        <v>10.22821836082717</v>
+        <v>14.89540106344204</v>
       </c>
       <c r="H98" t="n">
-        <v>-6.052205427497649</v>
+        <v>-8.525589733097876</v>
       </c>
       <c r="I98" t="n">
-        <v>2.68087154714406</v>
+        <v>3.494961903540089</v>
       </c>
       <c r="J98" t="n">
-        <v>-5.469384345903825</v>
+        <v>-7.697479341733438</v>
       </c>
       <c r="K98" t="n">
-        <v>-6.268838026436391</v>
+        <v>-8.321066490805499</v>
       </c>
     </row>
     <row r="99">
@@ -4286,25 +4286,25 @@
         <v>17</v>
       </c>
       <c r="E99" t="n">
-        <v>-4.583348571023592</v>
+        <v>-5.217055676684526</v>
       </c>
       <c r="F99" t="n">
-        <v>9.762967176908578</v>
+        <v>11.00853158663771</v>
       </c>
       <c r="G99" t="n">
-        <v>9.819853601338604</v>
+        <v>11.18607409477545</v>
       </c>
       <c r="H99" t="n">
-        <v>-5.973040389062301</v>
+        <v>-6.899672689408739</v>
       </c>
       <c r="I99" t="n">
-        <v>2.453063547950717</v>
+        <v>2.688811709443868</v>
       </c>
       <c r="J99" t="n">
-        <v>-5.377360352320773</v>
+        <v>-6.071564670682419</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.102184727769837</v>
+        <v>-6.695149863619624</v>
       </c>
     </row>
     <row r="100">
@@ -4325,25 +4325,25 @@
         <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>-4.586590488148498</v>
+        <v>-4.825312930164067</v>
       </c>
       <c r="F100" t="n">
-        <v>9.227869454825571</v>
+        <v>9.543638301015529</v>
       </c>
       <c r="G100" t="n">
-        <v>10.53995948560615</v>
+        <v>11.02576079252241</v>
       </c>
       <c r="H100" t="n">
-        <v>-6.340494219546963</v>
+        <v>-6.507929215706691</v>
       </c>
       <c r="I100" t="n">
-        <v>2.561718873521807</v>
+        <v>2.747057704864285</v>
       </c>
       <c r="J100" t="n">
-        <v>-5.420030999801942</v>
+        <v>-5.679820109393227</v>
       </c>
       <c r="K100" t="n">
-        <v>-5.98245459947397</v>
+        <v>-6.303403625366955</v>
       </c>
     </row>
     <row r="101">
@@ -4364,25 +4364,25 @@
         <v>19</v>
       </c>
       <c r="E101" t="n">
-        <v>-4.596420500421109</v>
+        <v>-4.673425571879385</v>
       </c>
       <c r="F101" t="n">
-        <v>9.412479256203858</v>
+        <v>9.190036066352439</v>
       </c>
       <c r="G101" t="n">
-        <v>9.803333554189724</v>
+        <v>10.71418450756429</v>
       </c>
       <c r="H101" t="n">
-        <v>-5.883118311980539</v>
+        <v>-6.18799120387285</v>
       </c>
       <c r="I101" t="n">
-        <v>2.436962933102089</v>
+        <v>2.428587682277687</v>
       </c>
       <c r="J101" t="n">
-        <v>-5.119736975763008</v>
+        <v>-5.430982609277962</v>
       </c>
       <c r="K101" t="n">
-        <v>-6.053520100053589</v>
+        <v>-6.04043068558975</v>
       </c>
     </row>
     <row r="102">
@@ -4403,25 +4403,25 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.93906573665942</v>
+        <v>-2.014860524329847</v>
       </c>
       <c r="F102" t="n">
-        <v>6.355918386038947</v>
+        <v>6.545408724428542</v>
       </c>
       <c r="G102" t="n">
-        <v>-2.324428034969181</v>
+        <v>-2.400225256278433</v>
       </c>
       <c r="H102" t="n">
-        <v>-1.705169061104604</v>
+        <v>-1.780965843920348</v>
       </c>
       <c r="I102" t="n">
-        <v>5.402048600714915</v>
+        <v>5.591536798718458</v>
       </c>
       <c r="J102" t="n">
-        <v>-2.739895338214119</v>
+        <v>-2.815691380368528</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.049440604003422</v>
+        <v>-3.125235594570777</v>
       </c>
     </row>
     <row r="103">
@@ -4442,25 +4442,25 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.80260533661613</v>
+        <v>-1.401927780219484</v>
       </c>
       <c r="F103" t="n">
-        <v>5.919472385659903</v>
+        <v>6.318349118775092</v>
       </c>
       <c r="G103" t="n">
-        <v>-2.25414150470169</v>
+        <v>-2.360157281284565</v>
       </c>
       <c r="H103" t="n">
-        <v>-1.490510792590686</v>
+        <v>-1.624940554100946</v>
       </c>
       <c r="I103" t="n">
-        <v>5.310334157388239</v>
+        <v>5.364476750374418</v>
       </c>
       <c r="J103" t="n">
-        <v>-3.097210968533803</v>
+        <v>-3.250500388339818</v>
       </c>
       <c r="K103" t="n">
-        <v>-2.5853405453342</v>
+        <v>-3.045366568201918</v>
       </c>
     </row>
     <row r="104">
@@ -4481,25 +4481,25 @@
         <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.996002729986301</v>
+        <v>-2.021597566655049</v>
       </c>
       <c r="F104" t="n">
-        <v>5.986090062538175</v>
+        <v>6.050059623026828</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.277175850867206</v>
+        <v>-2.302774844408229</v>
       </c>
       <c r="H104" t="n">
-        <v>-1.500931566608517</v>
+        <v>-1.526529104488056</v>
       </c>
       <c r="I104" t="n">
-        <v>5.376948774430942</v>
+        <v>5.44092008690164</v>
       </c>
       <c r="J104" t="n">
-        <v>-3.104032789300843</v>
+        <v>-3.129628628441959</v>
       </c>
       <c r="K104" t="n">
-        <v>-2.484908656173247</v>
+        <v>-2.510504070653443</v>
       </c>
     </row>
     <row r="105">
@@ -4520,25 +4520,25 @@
         <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.966566244074613</v>
+        <v>-1.913734839913861</v>
       </c>
       <c r="F105" t="n">
-        <v>6.517717125273188</v>
+        <v>6.369637610280196</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.586846681270652</v>
+        <v>-2.365269186471956</v>
       </c>
       <c r="H105" t="n">
-        <v>-1.672596320865709</v>
+        <v>-1.601639387099901</v>
       </c>
       <c r="I105" t="n">
-        <v>5.563841222018955</v>
+        <v>5.41576534050513</v>
       </c>
       <c r="J105" t="n">
-        <v>-3.269163769197695</v>
+        <v>-3.208338639329681</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.586423006022999</v>
+        <v>-2.696469508838188</v>
       </c>
     </row>
     <row r="106">
@@ -4559,25 +4559,25 @@
         <v>4</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.167240563869796</v>
+        <v>-3.474742941114084</v>
       </c>
       <c r="F106" t="n">
-        <v>11.8588782422466</v>
+        <v>12.25651391225001</v>
       </c>
       <c r="G106" t="n">
-        <v>-3.401728160114546</v>
+        <v>-3.640808841669816</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.488826352864795</v>
+        <v>-2.287490047307809</v>
       </c>
       <c r="I106" t="n">
-        <v>4.795590220290189</v>
+        <v>5.245756707495356</v>
       </c>
       <c r="J106" t="n">
-        <v>-4.899160919630047</v>
+        <v>-4.423225914754573</v>
       </c>
       <c r="K106" t="n">
-        <v>-3.697552699984065</v>
+        <v>-3.676025936908516</v>
       </c>
     </row>
     <row r="107">
@@ -4598,25 +4598,25 @@
         <v>5</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.901607009295246</v>
+        <v>-1.748070480519134</v>
       </c>
       <c r="F107" t="n">
-        <v>6.370498052699632</v>
+        <v>5.814282238701669</v>
       </c>
       <c r="G107" t="n">
-        <v>-2.256116062181108</v>
+        <v>-2.102575629295468</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.769070327059866</v>
+        <v>-1.615524988762704</v>
       </c>
       <c r="I107" t="n">
-        <v>5.416626556401023</v>
+        <v>5.205141724483316</v>
       </c>
       <c r="J107" t="n">
-        <v>-3.161950632747088</v>
+        <v>-3.008413331301922</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.698417751107934</v>
+        <v>-2.54487656789256</v>
       </c>
     </row>
     <row r="108">
@@ -4637,25 +4637,25 @@
         <v>6</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.827422616991584</v>
+        <v>-1.935500368555695</v>
       </c>
       <c r="F108" t="n">
-        <v>5.968495160073749</v>
+        <v>6.41102343714101</v>
       </c>
       <c r="G108" t="n">
-        <v>-2.377268853850302</v>
+        <v>-2.485343782756676</v>
       </c>
       <c r="H108" t="n">
-        <v>-1.555564229878913</v>
+        <v>-1.663635459280643</v>
       </c>
       <c r="I108" t="n">
-        <v>5.359354910082115</v>
+        <v>5.457153448694029</v>
       </c>
       <c r="J108" t="n">
-        <v>-2.972595205316328</v>
+        <v>-3.080670997885869</v>
       </c>
       <c r="K108" t="n">
-        <v>-2.595022144832398</v>
+        <v>-2.703096295007286</v>
       </c>
     </row>
     <row r="109">
@@ -4676,25 +4676,25 @@
         <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.955104461158794</v>
+        <v>-2.073640334062947</v>
       </c>
       <c r="F109" t="n">
-        <v>6.473078652235754</v>
+        <v>6.226416858326488</v>
       </c>
       <c r="G109" t="n">
-        <v>-2.406639327502315</v>
+        <v>-2.148325964201368</v>
       </c>
       <c r="H109" t="n">
-        <v>-1.643009921943094</v>
+        <v>-1.510229638932831</v>
       </c>
       <c r="I109" t="n">
-        <v>5.519208181834147</v>
+        <v>5.272544314823027</v>
       </c>
       <c r="J109" t="n">
-        <v>-3.249708875228583</v>
+        <v>-3.126686907562023</v>
       </c>
       <c r="K109" t="n">
-        <v>-2.737836834403395</v>
+        <v>-2.640074372788765</v>
       </c>
     </row>
     <row r="110">
@@ -4715,25 +4715,25 @@
         <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.149877613596546</v>
+        <v>-1.83731733726701</v>
       </c>
       <c r="F110" t="n">
-        <v>6.416994935564724</v>
+        <v>6.24958624605218</v>
       </c>
       <c r="G110" t="n">
-        <v>-2.224563163590919</v>
+        <v>-2.206829427855353</v>
       </c>
       <c r="H110" t="n">
-        <v>-1.586467121070647</v>
+        <v>-1.890582999488965</v>
       </c>
       <c r="I110" t="n">
-        <v>5.463122161012462</v>
+        <v>5.295713689871979</v>
       </c>
       <c r="J110" t="n">
-        <v>-3.202923964603673</v>
+        <v>-3.067483061184931</v>
       </c>
       <c r="K110" t="n">
-        <v>-2.716311606374781</v>
+        <v>-2.543144865764271</v>
       </c>
     </row>
     <row r="111">
@@ -4754,25 +4754,25 @@
         <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.90075126913014</v>
+        <v>-1.899611007026507</v>
       </c>
       <c r="F111" t="n">
-        <v>6.367788781072966</v>
+        <v>6.334340827854865</v>
       </c>
       <c r="G111" t="n">
-        <v>-2.373035973532371</v>
+        <v>-2.351148186562976</v>
       </c>
       <c r="H111" t="n">
-        <v>-1.736464935298405</v>
+        <v>-1.587518152405999</v>
       </c>
       <c r="I111" t="n">
-        <v>5.413916236429211</v>
+        <v>5.380464729201268</v>
       </c>
       <c r="J111" t="n">
-        <v>-3.17122025108532</v>
+        <v>-3.194217674659312</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.600253831106807</v>
+        <v>-2.682347832757456</v>
       </c>
     </row>
     <row r="112">
@@ -4793,25 +4793,25 @@
         <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.786360847803377</v>
+        <v>-1.877924403037883</v>
       </c>
       <c r="F112" t="n">
-        <v>6.054675965799281</v>
+        <v>6.250736500127247</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.112292236159786</v>
+        <v>-2.305519384866449</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.698026499759115</v>
+        <v>-1.598496085695874</v>
       </c>
       <c r="I112" t="n">
-        <v>5.100809404600342</v>
+        <v>5.296862023182525</v>
       </c>
       <c r="J112" t="n">
-        <v>-2.844249230878185</v>
+        <v>-2.977609545734291</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.714573166764001</v>
+        <v>-2.788069493837449</v>
       </c>
     </row>
     <row r="113">
@@ -4832,25 +4832,25 @@
         <v>11</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.90075126913014</v>
+        <v>-1.897369442834349</v>
       </c>
       <c r="F113" t="n">
-        <v>6.367788781072966</v>
+        <v>6.359328479346049</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.373035973532371</v>
+        <v>-2.369654165114808</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.736464935298405</v>
+        <v>-1.733082793089167</v>
       </c>
       <c r="I113" t="n">
-        <v>5.413916236429211</v>
+        <v>5.405456246919876</v>
       </c>
       <c r="J113" t="n">
-        <v>-3.17122025108532</v>
+        <v>-3.167838548926067</v>
       </c>
       <c r="K113" t="n">
-        <v>-2.600253831106807</v>
+        <v>-2.596871799064184</v>
       </c>
     </row>
     <row r="114">
@@ -4871,25 +4871,25 @@
         <v>12</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.963653863414407</v>
+        <v>-0.5281727184455529</v>
       </c>
       <c r="F114" t="n">
-        <v>6.541992751829854</v>
+        <v>7.721705525087025</v>
       </c>
       <c r="G114" t="n">
-        <v>-2.106763604821588</v>
+        <v>-1.417037296491945</v>
       </c>
       <c r="H114" t="n">
-        <v>-1.520591846974275</v>
+        <v>-0.7755718594288782</v>
       </c>
       <c r="I114" t="n">
-        <v>5.5881253986837</v>
+        <v>6.767836356077891</v>
       </c>
       <c r="J114" t="n">
-        <v>-3.745855251044964</v>
+        <v>-9.401931931200339</v>
       </c>
       <c r="K114" t="n">
-        <v>-2.793277507859484</v>
+        <v>-2.366842381424819</v>
       </c>
     </row>
     <row r="115">
@@ -4910,25 +4910,25 @@
         <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.886735403787511</v>
+        <v>-1.838302443669384</v>
       </c>
       <c r="F115" t="n">
-        <v>6.302156518385889</v>
+        <v>6.2116576824856</v>
       </c>
       <c r="G115" t="n">
-        <v>-2.338271186235363</v>
+        <v>-2.31058651592602</v>
       </c>
       <c r="H115" t="n">
-        <v>-1.574641297879556</v>
+        <v>-1.674017616122871</v>
       </c>
       <c r="I115" t="n">
-        <v>5.348283993812165</v>
+        <v>5.257785002327757</v>
       </c>
       <c r="J115" t="n">
-        <v>-3.181340544154384</v>
+        <v>-3.10877124020733</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.669471658359069</v>
+        <v>-2.537806187647753</v>
       </c>
     </row>
     <row r="116">
@@ -4949,25 +4949,25 @@
         <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>-1.90075126913014</v>
+        <v>-2.12787267050524</v>
       </c>
       <c r="F116" t="n">
-        <v>6.367788781072966</v>
+        <v>6.361982471604409</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.373035973532371</v>
+        <v>-2.202558705024975</v>
       </c>
       <c r="H116" t="n">
-        <v>-1.736464935298405</v>
+        <v>-1.564461994740534</v>
       </c>
       <c r="I116" t="n">
-        <v>5.413916236429211</v>
+        <v>5.408110536982907</v>
       </c>
       <c r="J116" t="n">
-        <v>-3.17122025108532</v>
+        <v>-3.18091934413491</v>
       </c>
       <c r="K116" t="n">
-        <v>-2.600253831106807</v>
+        <v>-2.69430777169002</v>
       </c>
     </row>
     <row r="117">
@@ -4988,25 +4988,25 @@
         <v>15</v>
       </c>
       <c r="E117" t="n">
-        <v>-2.030322557057612</v>
+        <v>-2.030733379367542</v>
       </c>
       <c r="F117" t="n">
-        <v>6.131688263690228</v>
+        <v>6.649128933708192</v>
       </c>
       <c r="G117" t="n">
-        <v>-2.213426494264354</v>
+        <v>-2.580577742646719</v>
       </c>
       <c r="H117" t="n">
-        <v>-1.515897886396282</v>
+        <v>-1.758872882867524</v>
       </c>
       <c r="I117" t="n">
-        <v>5.177818576506904</v>
+        <v>5.695257155450209</v>
       </c>
       <c r="J117" t="n">
-        <v>-2.958049432336881</v>
+        <v>-3.175904956776719</v>
       </c>
       <c r="K117" t="n">
-        <v>-2.591847431405383</v>
+        <v>-2.798332365139016</v>
       </c>
     </row>
     <row r="118">
@@ -5027,25 +5027,25 @@
         <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.468928544899346</v>
+        <v>-1.853681404399728</v>
       </c>
       <c r="F118" t="n">
-        <v>6.416758250592848</v>
+        <v>6.219522434577552</v>
       </c>
       <c r="G118" t="n">
-        <v>-2.730350191350616</v>
+        <v>-2.305214259154993</v>
       </c>
       <c r="H118" t="n">
-        <v>-1.122629548737851</v>
+        <v>-1.541588038110454</v>
       </c>
       <c r="I118" t="n">
-        <v>5.462890752863369</v>
+        <v>5.265653010603906</v>
       </c>
       <c r="J118" t="n">
-        <v>-3.440321128164827</v>
+        <v>-3.148284818293225</v>
       </c>
       <c r="K118" t="n">
-        <v>-3.117431828044938</v>
+        <v>-2.636419563243158</v>
       </c>
     </row>
     <row r="119">
@@ -5066,25 +5066,25 @@
         <v>17</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.831544031411519</v>
+        <v>-2.026940388211187</v>
       </c>
       <c r="F119" t="n">
-        <v>6.164186855600017</v>
+        <v>6.580829702219825</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.28308007696103</v>
+        <v>-2.764240691512506</v>
       </c>
       <c r="H119" t="n">
-        <v>-1.519450695914015</v>
+        <v>-1.185749210420725</v>
       </c>
       <c r="I119" t="n">
-        <v>5.210315173818675</v>
+        <v>5.6269557044051</v>
       </c>
       <c r="J119" t="n">
-        <v>-3.126149004918399</v>
+        <v>-3.435855160970863</v>
       </c>
       <c r="K119" t="n">
-        <v>-2.614279903366183</v>
+        <v>-2.795033183658554</v>
       </c>
     </row>
     <row r="120">
@@ -5105,25 +5105,25 @@
         <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.899257815453772</v>
+        <v>-1.893584073652356</v>
       </c>
       <c r="F120" t="n">
-        <v>6.349450709509913</v>
+        <v>6.335267884694779</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.519536447375953</v>
+        <v>-2.51386579697633</v>
       </c>
       <c r="H120" t="n">
-        <v>-1.605286762618135</v>
+        <v>-1.599614066836082</v>
       </c>
       <c r="I120" t="n">
-        <v>5.395575895997195</v>
+        <v>5.381393875646674</v>
       </c>
       <c r="J120" t="n">
-        <v>-3.201858037696212</v>
+        <v>-3.196186704715202</v>
       </c>
       <c r="K120" t="n">
-        <v>-2.519116819961124</v>
+        <v>-2.513444308789541</v>
       </c>
     </row>
     <row r="121">
@@ -5144,25 +5144,25 @@
         <v>19</v>
       </c>
       <c r="E121" t="n">
-        <v>-2.42347476590953</v>
+        <v>-1.907383125089783</v>
       </c>
       <c r="F121" t="n">
-        <v>6.581040182005206</v>
+        <v>6.181408172461918</v>
       </c>
       <c r="G121" t="n">
-        <v>-2.421939143325162</v>
+        <v>-2.35891867425755</v>
       </c>
       <c r="H121" t="n">
-        <v>-1.203586983055178</v>
+        <v>-1.595288938353947</v>
       </c>
       <c r="I121" t="n">
-        <v>5.627164649766772</v>
+        <v>5.572267721585217</v>
       </c>
       <c r="J121" t="n">
-        <v>-3.366118846091195</v>
+        <v>-3.201988397750982</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.793062008605092</v>
+        <v>-2.690119167680164</v>
       </c>
     </row>
     <row r="122">
@@ -5963,25 +5963,25 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.1040494654786858</v>
+        <v>-0.2100322339363155</v>
       </c>
       <c r="F142" t="n">
-        <v>0.939540482656374</v>
+        <v>1.061801570545064</v>
       </c>
       <c r="G142" t="n">
-        <v>2.389565403691657</v>
+        <v>2.622858629916935</v>
       </c>
       <c r="H142" t="n">
-        <v>1.213976610674589</v>
+        <v>1.197564334322281</v>
       </c>
       <c r="I142" t="n">
-        <v>1.817602901887473</v>
+        <v>2.078045234851669</v>
       </c>
       <c r="J142" t="n">
-        <v>0.6245025915608988</v>
+        <v>0.7615176454748934</v>
       </c>
       <c r="K142" t="n">
-        <v>-6.881143666292926</v>
+        <v>-7.511797479595462</v>
       </c>
     </row>
     <row r="143">
@@ -6002,25 +6002,25 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2460929427512386</v>
+        <v>-4.477358190478516</v>
       </c>
       <c r="F143" t="n">
-        <v>0.965967085441037</v>
+        <v>2.665037127049872</v>
       </c>
       <c r="G143" t="n">
-        <v>2.443855490961802</v>
+        <v>4.413427382575091</v>
       </c>
       <c r="H143" t="n">
-        <v>1.095241175223048</v>
+        <v>3.128714003953557</v>
       </c>
       <c r="I143" t="n">
-        <v>1.869871629857956</v>
+        <v>3.412914563977842</v>
       </c>
       <c r="J143" t="n">
-        <v>0.7906009251755429</v>
+        <v>2.405336355093521</v>
       </c>
       <c r="K143" t="n">
-        <v>-6.919439568601951</v>
+        <v>-11.54812202896362</v>
       </c>
     </row>
     <row r="144">
@@ -6041,25 +6041,25 @@
         <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.2806999242211986</v>
+        <v>-0.41790200481608</v>
       </c>
       <c r="F144" t="n">
-        <v>1.159244445429936</v>
+        <v>1.026072882436668</v>
       </c>
       <c r="G144" t="n">
-        <v>2.544421827708433</v>
+        <v>2.629727185067789</v>
       </c>
       <c r="H144" t="n">
-        <v>1.236681488960961</v>
+        <v>1.1311330613036</v>
       </c>
       <c r="I144" t="n">
-        <v>1.864322865890542</v>
+        <v>2.025059894052482</v>
       </c>
       <c r="J144" t="n">
-        <v>0.8823419106904811</v>
+        <v>0.6927683561274717</v>
       </c>
       <c r="K144" t="n">
-        <v>-7.406290114844598</v>
+        <v>-7.086862990073437</v>
       </c>
     </row>
     <row r="145">
@@ -6080,25 +6080,25 @@
         <v>3</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.3702766986199237</v>
+        <v>-0.1973543046887109</v>
       </c>
       <c r="F145" t="n">
-        <v>1.062010951323637</v>
+        <v>1.19033522098705</v>
       </c>
       <c r="G145" t="n">
-        <v>2.61378755578068</v>
+        <v>2.880403259994999</v>
       </c>
       <c r="H145" t="n">
-        <v>0.9305772352629121</v>
+        <v>1.303993882613613</v>
       </c>
       <c r="I145" t="n">
-        <v>2.29446579711044</v>
+        <v>2.077749722905483</v>
       </c>
       <c r="J145" t="n">
-        <v>0.784755086543284</v>
+        <v>0.8556776310874031</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.315320103341219</v>
+        <v>-8.110839071083085</v>
       </c>
     </row>
     <row r="146">
@@ -6119,25 +6119,25 @@
         <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.2387343558329248</v>
+        <v>-0.3851052467436764</v>
       </c>
       <c r="F146" t="n">
-        <v>1.074638191540612</v>
+        <v>1.052447804200785</v>
       </c>
       <c r="G146" t="n">
-        <v>2.48452470934116</v>
+        <v>2.677082290678069</v>
       </c>
       <c r="H146" t="n">
-        <v>1.357443102554575</v>
+        <v>1.160288128728879</v>
       </c>
       <c r="I146" t="n">
-        <v>1.990119507669314</v>
+        <v>1.954414584833919</v>
       </c>
       <c r="J146" t="n">
-        <v>0.8467966320724506</v>
+        <v>0.7970628180418284</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.514783608953043</v>
+        <v>-7.256206871859435</v>
       </c>
     </row>
     <row r="147">
@@ -6158,25 +6158,25 @@
         <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.1825375197675967</v>
+        <v>-0.2276904500947293</v>
       </c>
       <c r="F147" t="n">
-        <v>1.264431563937729</v>
+        <v>1.517418953849898</v>
       </c>
       <c r="G147" t="n">
-        <v>2.718089652592893</v>
+        <v>2.910640641122605</v>
       </c>
       <c r="H147" t="n">
-        <v>1.580571645382411</v>
+        <v>1.372605915610965</v>
       </c>
       <c r="I147" t="n">
-        <v>1.992070885105714</v>
+        <v>2.284675929829535</v>
       </c>
       <c r="J147" t="n">
-        <v>0.6471682436578708</v>
+        <v>0.6625493569387013</v>
       </c>
       <c r="K147" t="n">
-        <v>-8.019840753383374</v>
+        <v>-8.520258981973459</v>
       </c>
     </row>
     <row r="148">
@@ -6197,25 +6197,25 @@
         <v>6</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.3579315307122907</v>
+        <v>-0.3817889348825532</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9999405110478569</v>
+        <v>1.0585834857835</v>
       </c>
       <c r="G148" t="n">
-        <v>2.534034017419636</v>
+        <v>2.70863675662201</v>
       </c>
       <c r="H148" t="n">
-        <v>1.170140139533369</v>
+        <v>1.215340348789735</v>
       </c>
       <c r="I148" t="n">
-        <v>1.907589204863317</v>
+        <v>1.962326186696935</v>
       </c>
       <c r="J148" t="n">
-        <v>0.7581869164037068</v>
+        <v>0.7235615626901065</v>
       </c>
       <c r="K148" t="n">
-        <v>-7.011963647184367</v>
+        <v>-7.28669050717795</v>
       </c>
     </row>
     <row r="149">
@@ -6236,25 +6236,25 @@
         <v>7</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.2352012162972687</v>
+        <v>-0.4131075118909013</v>
       </c>
       <c r="F149" t="n">
-        <v>1.277486342641642</v>
+        <v>1.038888935605943</v>
       </c>
       <c r="G149" t="n">
-        <v>2.583573649832573</v>
+        <v>3.229092301415486</v>
       </c>
       <c r="H149" t="n">
-        <v>1.288774954837867</v>
+        <v>0.7365115996302288</v>
       </c>
       <c r="I149" t="n">
-        <v>1.916695116746311</v>
+        <v>1.980123780059559</v>
       </c>
       <c r="J149" t="n">
-        <v>0.8857424554417296</v>
+        <v>0.5411294806488534</v>
       </c>
       <c r="K149" t="n">
-        <v>-7.71710216049204</v>
+        <v>-7.112607623317333</v>
       </c>
     </row>
     <row r="150">
@@ -6275,25 +6275,25 @@
         <v>8</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.2163380558767015</v>
+        <v>-0.3169219582340347</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8695974205662698</v>
+        <v>1.105291513912001</v>
       </c>
       <c r="G150" t="n">
-        <v>2.610686681351135</v>
+        <v>2.65011154108325</v>
       </c>
       <c r="H150" t="n">
-        <v>1.472922223435267</v>
+        <v>1.266381404401917</v>
       </c>
       <c r="I150" t="n">
-        <v>1.992001945182979</v>
+        <v>2.103274946313519</v>
       </c>
       <c r="J150" t="n">
-        <v>0.8512637591090805</v>
+        <v>0.779590240817908</v>
       </c>
       <c r="K150" t="n">
-        <v>-7.580112496022139</v>
+        <v>-7.587733768017618</v>
       </c>
     </row>
     <row r="151">
@@ -6314,25 +6314,25 @@
         <v>9</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.3181112935518702</v>
+        <v>-0.2791557631330974</v>
       </c>
       <c r="F151" t="n">
-        <v>1.060497896933218</v>
+        <v>0.9958513873206051</v>
       </c>
       <c r="G151" t="n">
-        <v>2.583199754930822</v>
+        <v>2.686836366228017</v>
       </c>
       <c r="H151" t="n">
-        <v>1.071514878466054</v>
+        <v>1.064642029661966</v>
       </c>
       <c r="I151" t="n">
-        <v>1.953557974543581</v>
+        <v>1.88394669160036</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9794144667929879</v>
+        <v>0.6699794517961097</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.330096433763447</v>
+        <v>-7.022132798547259</v>
       </c>
     </row>
     <row r="152">
@@ -6353,25 +6353,25 @@
         <v>10</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.4679726650164642</v>
+        <v>-0.4042022558372858</v>
       </c>
       <c r="F152" t="n">
-        <v>1.411177555568478</v>
+        <v>1.039363176989304</v>
       </c>
       <c r="G152" t="n">
-        <v>3.254216405088202</v>
+        <v>2.762700142092889</v>
       </c>
       <c r="H152" t="n">
-        <v>0.8679309638474814</v>
+        <v>1.37547049065632</v>
       </c>
       <c r="I152" t="n">
-        <v>2.109771325269336</v>
+        <v>1.897821340569432</v>
       </c>
       <c r="J152" t="n">
-        <v>0.5259875621120569</v>
+        <v>0.4923290883903983</v>
       </c>
       <c r="K152" t="n">
-        <v>-7.701108586124249</v>
+        <v>-7.163511087241653</v>
       </c>
     </row>
     <row r="153">
@@ -6392,25 +6392,25 @@
         <v>11</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.1566689981826805</v>
+        <v>-0.118505606460459</v>
       </c>
       <c r="F153" t="n">
-        <v>1.003044411990389</v>
+        <v>1.330971067500687</v>
       </c>
       <c r="G153" t="n">
-        <v>2.533921801229478</v>
+        <v>2.997508042258828</v>
       </c>
       <c r="H153" t="n">
-        <v>1.193830486921982</v>
+        <v>1.437745713217133</v>
       </c>
       <c r="I153" t="n">
-        <v>1.917009346160105</v>
+        <v>2.235707914744701</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6744732599711951</v>
+        <v>1.028647710955867</v>
       </c>
       <c r="K153" t="n">
-        <v>-7.165608667800646</v>
+        <v>-8.912126790349873</v>
       </c>
     </row>
     <row r="154">
@@ -6431,25 +6431,25 @@
         <v>12</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.2025562085307901</v>
+        <v>-0.4215475026988679</v>
       </c>
       <c r="F154" t="n">
-        <v>1.091643234990406</v>
+        <v>1.141966571846662</v>
       </c>
       <c r="G154" t="n">
-        <v>2.62199210629029</v>
+        <v>2.740589107398766</v>
       </c>
       <c r="H154" t="n">
-        <v>1.269324955764176</v>
+        <v>1.149664155343734</v>
       </c>
       <c r="I154" t="n">
-        <v>1.972580301697149</v>
+        <v>1.861385230475578</v>
       </c>
       <c r="J154" t="n">
-        <v>0.8574502968066627</v>
+        <v>0.7024372111946214</v>
       </c>
       <c r="K154" t="n">
-        <v>-7.610458851247354</v>
+        <v>-7.174569854490035</v>
       </c>
     </row>
     <row r="155">
@@ -6470,25 +6470,25 @@
         <v>13</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.3607687156091063</v>
+        <v>-0.1544397709262977</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9933908276706132</v>
+        <v>1.185022208651139</v>
       </c>
       <c r="G155" t="n">
-        <v>2.515399378634191</v>
+        <v>2.914729040610334</v>
       </c>
       <c r="H155" t="n">
-        <v>1.012237320277151</v>
+        <v>1.021742045505702</v>
       </c>
       <c r="I155" t="n">
-        <v>1.788311426214628</v>
+        <v>2.380250254033201</v>
       </c>
       <c r="J155" t="n">
-        <v>1.045302748872972</v>
+        <v>0.7426396624826724</v>
       </c>
       <c r="K155" t="n">
-        <v>-6.993906270378254</v>
+        <v>-8.089964651550831</v>
       </c>
     </row>
     <row r="156">
@@ -6509,25 +6509,25 @@
         <v>14</v>
       </c>
       <c r="E156" t="n">
-        <v>-4.928346482387652</v>
+        <v>-0.2089252185850242</v>
       </c>
       <c r="F156" t="n">
-        <v>2.868742095106415</v>
+        <v>1.095111570553582</v>
       </c>
       <c r="G156" t="n">
-        <v>4.334649123539804</v>
+        <v>2.906223631582657</v>
       </c>
       <c r="H156" t="n">
-        <v>3.410271775061901</v>
+        <v>1.501729711863052</v>
       </c>
       <c r="I156" t="n">
-        <v>3.936130676594937</v>
+        <v>2.036587746914166</v>
       </c>
       <c r="J156" t="n">
-        <v>2.501953003549517</v>
+        <v>0.8714495812535034</v>
       </c>
       <c r="K156" t="n">
-        <v>-12.12340977039234</v>
+        <v>-8.202199704784375</v>
       </c>
     </row>
     <row r="157">
@@ -6548,25 +6548,25 @@
         <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.3454136914515879</v>
+        <v>-0.3047600149093311</v>
       </c>
       <c r="F157" t="n">
-        <v>1.053093809603424</v>
+        <v>1.102668038351788</v>
       </c>
       <c r="G157" t="n">
-        <v>2.329114166358421</v>
+        <v>2.80117765282694</v>
       </c>
       <c r="H157" t="n">
-        <v>1.167681641109086</v>
+        <v>1.214342159885815</v>
       </c>
       <c r="I157" t="n">
-        <v>2.029696762049852</v>
+        <v>1.990632333272315</v>
       </c>
       <c r="J157" t="n">
-        <v>0.7546393646314475</v>
+        <v>0.765569966169339</v>
       </c>
       <c r="K157" t="n">
-        <v>-6.988796442510495</v>
+        <v>-7.569675350531862</v>
       </c>
     </row>
     <row r="158">
@@ -6587,25 +6587,25 @@
         <v>16</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.2078973287730798</v>
+        <v>-0.3697948016355946</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8994344517628458</v>
+        <v>0.6895361304995242</v>
       </c>
       <c r="G158" t="n">
-        <v>2.496976793433757</v>
+        <v>3.361934127114145</v>
       </c>
       <c r="H158" t="n">
-        <v>1.162725049798614</v>
+        <v>1.137581565841827</v>
       </c>
       <c r="I158" t="n">
-        <v>1.879779006145021</v>
+        <v>2.106001363171386</v>
       </c>
       <c r="J158" t="n">
-        <v>0.746734234425234</v>
+        <v>0.9195821325435991</v>
       </c>
       <c r="K158" t="n">
-        <v>-6.977799966606587</v>
+        <v>-7.844877876232299</v>
       </c>
     </row>
     <row r="159">
@@ -6626,25 +6626,25 @@
         <v>17</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.2074641143721504</v>
+        <v>-0.368852205852134</v>
       </c>
       <c r="F159" t="n">
-        <v>1.132229148958408</v>
+        <v>1.007968667374508</v>
       </c>
       <c r="G159" t="n">
-        <v>2.65869251222208</v>
+        <v>2.750791139338072</v>
       </c>
       <c r="H159" t="n">
-        <v>1.307091912089529</v>
+        <v>1.17776503105695</v>
       </c>
       <c r="I159" t="n">
-        <v>1.949201046034015</v>
+        <v>1.89390015808502</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9928177651862488</v>
+        <v>0.8878292604603926</v>
       </c>
       <c r="K159" t="n">
-        <v>-7.832583087916293</v>
+        <v>-7.34944011511883</v>
       </c>
     </row>
     <row r="160">
@@ -6665,25 +6665,25 @@
         <v>18</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.3800954526147456</v>
+        <v>-0.335555444360879</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6072282771390883</v>
+        <v>1.143684258842236</v>
       </c>
       <c r="G160" t="n">
-        <v>3.096608751946304</v>
+        <v>2.746808590473049</v>
       </c>
       <c r="H160" t="n">
-        <v>1.202554029345909</v>
+        <v>1.308081067152716</v>
       </c>
       <c r="I160" t="n">
-        <v>1.972211375543148</v>
+        <v>1.903700170631267</v>
       </c>
       <c r="J160" t="n">
-        <v>0.7544065742758386</v>
+        <v>0.7643035902176913</v>
       </c>
       <c r="K160" t="n">
-        <v>-7.252933693377735</v>
+        <v>-7.531068525291559</v>
       </c>
     </row>
     <row r="161">
@@ -6704,25 +6704,25 @@
         <v>19</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.2980101488636317</v>
+        <v>-0.3198973255662741</v>
       </c>
       <c r="F161" t="n">
-        <v>1.044406222426798</v>
+        <v>1.370040990914187</v>
       </c>
       <c r="G161" t="n">
-        <v>2.528169290220497</v>
+        <v>2.893391977833629</v>
       </c>
       <c r="H161" t="n">
-        <v>1.218516241770719</v>
+        <v>1.119375300391338</v>
       </c>
       <c r="I161" t="n">
-        <v>1.94818086842184</v>
+        <v>2.099702402355275</v>
       </c>
       <c r="J161" t="n">
-        <v>0.8582163337700747</v>
+        <v>0.8412902002780484</v>
       </c>
       <c r="K161" t="n">
-        <v>-7.299456355515207</v>
+        <v>-8.003924775364229</v>
       </c>
     </row>
     <row r="162">
@@ -6743,25 +6743,25 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.5250502448954496</v>
+        <v>-1.155437679188002</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.8764223848461947</v>
+        <v>-0.8386322840800846</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.3294558337101879</v>
+        <v>-0.371025004162943</v>
       </c>
       <c r="H162" t="n">
-        <v>2.017244633419797</v>
+        <v>2.163010100118146</v>
       </c>
       <c r="I162" t="n">
-        <v>0.8391448377096653</v>
+        <v>1.074353079005602</v>
       </c>
       <c r="J162" t="n">
-        <v>0.9312076277082659</v>
+        <v>1.173447178023626</v>
       </c>
       <c r="K162" t="n">
-        <v>-2.056670730104344</v>
+        <v>-2.045716907040435</v>
       </c>
     </row>
     <row r="163">
@@ -6782,25 +6782,25 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.6792290343446267</v>
+        <v>-0.4117755420651304</v>
       </c>
       <c r="F163" t="n">
-        <v>-0.8951504318507488</v>
+        <v>-0.5586409031762919</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.4260638938885642</v>
+        <v>-0.4156973514900045</v>
       </c>
       <c r="H163" t="n">
-        <v>2.047628970388036</v>
+        <v>1.878608489482149</v>
       </c>
       <c r="I163" t="n">
-        <v>0.8688929249694597</v>
+        <v>0.5053886858838057</v>
       </c>
       <c r="J163" t="n">
-        <v>1.044146635821327</v>
+        <v>0.9332861193589782</v>
       </c>
       <c r="K163" t="n">
-        <v>-1.960229201421277</v>
+        <v>-1.93116641206818</v>
       </c>
     </row>
     <row r="164">
@@ -6821,25 +6821,25 @@
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.5178617948535446</v>
+        <v>-0.5865946098870072</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.8068760133261716</v>
+        <v>-0.5463955739304948</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.378736392569794</v>
+        <v>-0.3634940139187073</v>
       </c>
       <c r="H164" t="n">
-        <v>1.958796759149262</v>
+        <v>1.72602458357145</v>
       </c>
       <c r="I164" t="n">
-        <v>0.8246845288589718</v>
+        <v>0.5759633509928485</v>
       </c>
       <c r="J164" t="n">
-        <v>0.9558191961775988</v>
+        <v>0.9862006225596404</v>
       </c>
       <c r="K164" t="n">
-        <v>-2.03583030322367</v>
+        <v>-1.791703673424247</v>
       </c>
     </row>
     <row r="165">
@@ -6860,25 +6860,25 @@
         <v>3</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.5544278402567049</v>
+        <v>-0.5442065051911917</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.894813233919199</v>
+        <v>-0.5390567065754492</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.4068064288949889</v>
+        <v>-0.2880586336255536</v>
       </c>
       <c r="H165" t="n">
-        <v>1.887427373996099</v>
+        <v>1.595381802150163</v>
       </c>
       <c r="I165" t="n">
-        <v>0.9924859071699609</v>
+        <v>0.5138995379620088</v>
       </c>
       <c r="J165" t="n">
-        <v>1.057772212852079</v>
+        <v>1.183628372142861</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.081639491407964</v>
+        <v>-1.921591580622966</v>
       </c>
     </row>
     <row r="166">
@@ -6899,25 +6899,25 @@
         <v>4</v>
       </c>
       <c r="E166" t="n">
-        <v>0.09471322027279433</v>
+        <v>-0.6863649987676309</v>
       </c>
       <c r="F166" t="n">
-        <v>0.4216341462276061</v>
+        <v>-0.5737240505131945</v>
       </c>
       <c r="G166" t="n">
-        <v>0.3611191678721562</v>
+        <v>-0.3277635600927425</v>
       </c>
       <c r="H166" t="n">
-        <v>2.830504093200484</v>
+        <v>1.879632531833217</v>
       </c>
       <c r="I166" t="n">
-        <v>1.699291582704899</v>
+        <v>0.5076453559032349</v>
       </c>
       <c r="J166" t="n">
-        <v>1.874632994167552</v>
+        <v>1.010733445113572</v>
       </c>
       <c r="K166" t="n">
-        <v>-7.281915831646586</v>
+        <v>-1.810159860471516</v>
       </c>
     </row>
     <row r="167">
@@ -6938,25 +6938,25 @@
         <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>-2.778784581065703</v>
+        <v>-0.3334437777905316</v>
       </c>
       <c r="F167" t="n">
-        <v>-3.277006001873198</v>
+        <v>-0.8695413345505896</v>
       </c>
       <c r="G167" t="n">
-        <v>-3.2278641469619</v>
+        <v>-0.3516201381154284</v>
       </c>
       <c r="H167" t="n">
-        <v>5.273112099870678</v>
+        <v>1.951526828641797</v>
       </c>
       <c r="I167" t="n">
-        <v>4.595151927258961</v>
+        <v>0.2422334655451621</v>
       </c>
       <c r="J167" t="n">
-        <v>3.917189749650787</v>
+        <v>1.394307507589478</v>
       </c>
       <c r="K167" t="n">
-        <v>-4.501805890014196</v>
+        <v>-2.033469324563162</v>
       </c>
     </row>
     <row r="168">
@@ -6977,25 +6977,25 @@
         <v>6</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.3852477215879804</v>
+        <v>-0.6863649987676309</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.8834596719253099</v>
+        <v>-0.5737240505131945</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.4253509763401836</v>
+        <v>-0.3277635600927425</v>
       </c>
       <c r="H168" t="n">
-        <v>2.012124046484068</v>
+        <v>1.879632531833217</v>
       </c>
       <c r="I168" t="n">
-        <v>0.8123994836467028</v>
+        <v>0.5076453559032349</v>
       </c>
       <c r="J168" t="n">
-        <v>0.9189613074776273</v>
+        <v>1.010733445113572</v>
       </c>
       <c r="K168" t="n">
-        <v>-2.04942839955289</v>
+        <v>-1.810159860471516</v>
       </c>
     </row>
     <row r="169">
@@ -7016,25 +7016,25 @@
         <v>7</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.5250502448954496</v>
+        <v>-0.5758221082254442</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.8764223848461947</v>
+        <v>-0.4654957520375043</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.3294558337101879</v>
+        <v>-0.2678748105430089</v>
       </c>
       <c r="H169" t="n">
-        <v>2.017244633419797</v>
+        <v>1.786370206027317</v>
       </c>
       <c r="I169" t="n">
-        <v>0.8391448377096653</v>
+        <v>0.5019938152612976</v>
       </c>
       <c r="J169" t="n">
-        <v>0.9312076277082659</v>
+        <v>0.9232962225338178</v>
       </c>
       <c r="K169" t="n">
-        <v>-2.056670730104344</v>
+        <v>-1.902469281931882</v>
       </c>
     </row>
     <row r="170">
@@ -7055,25 +7055,25 @@
         <v>8</v>
       </c>
       <c r="E170" t="n">
-        <v>-1.316948898556074</v>
+        <v>-0.6004657316353234</v>
       </c>
       <c r="F170" t="n">
-        <v>-1.777290695009443</v>
+        <v>-0.5840946745515707</v>
       </c>
       <c r="G170" t="n">
-        <v>-1.292227224206852</v>
+        <v>-0.3202807595768558</v>
       </c>
       <c r="H170" t="n">
-        <v>7.378164425646159</v>
+        <v>1.905476895875601</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.2397628631949834</v>
+        <v>0.5281051897351202</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1921544375503675</v>
+        <v>1.03334950061445</v>
       </c>
       <c r="K170" t="n">
-        <v>-2.944094361637756</v>
+        <v>-1.962093278318804</v>
       </c>
     </row>
     <row r="171">
@@ -7094,25 +7094,25 @@
         <v>9</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.4923492798129698</v>
+        <v>-0.568793560280754</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.8921780456178384</v>
+        <v>-0.561472387851954</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.4220046010848352</v>
+        <v>-0.3137769948924315</v>
       </c>
       <c r="H171" t="n">
-        <v>1.995912419973158</v>
+        <v>1.836744013460476</v>
       </c>
       <c r="I171" t="n">
-        <v>0.826278358890185</v>
+        <v>0.4899700298825633</v>
       </c>
       <c r="J171" t="n">
-        <v>1.031724266894846</v>
+        <v>1.014984710190704</v>
       </c>
       <c r="K171" t="n">
-        <v>-2.047385908122214</v>
+        <v>-1.897655538299879</v>
       </c>
     </row>
     <row r="172">
@@ -7133,25 +7133,25 @@
         <v>10</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.5154945353336929</v>
+        <v>-0.5864860955662542</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.9260653180197195</v>
+        <v>-0.5576343921858039</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.4406953830529414</v>
+        <v>-0.2338549976263688</v>
       </c>
       <c r="H172" t="n">
-        <v>2.046919550602512</v>
+        <v>1.871108110417444</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5060669917954547</v>
+        <v>0.5187045363706259</v>
       </c>
       <c r="J172" t="n">
-        <v>1.433749311748484</v>
+        <v>0.9214305559504948</v>
       </c>
       <c r="K172" t="n">
-        <v>-2.104484534095171</v>
+        <v>-1.933270299758306</v>
       </c>
     </row>
     <row r="173">
@@ -7172,25 +7172,25 @@
         <v>11</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.5417930302347737</v>
+        <v>-0.8676697735353146</v>
       </c>
       <c r="F173" t="n">
-        <v>-1.036405675179047</v>
+        <v>-0.584778204266059</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.4438270810097995</v>
+        <v>-0.05817988559659739</v>
       </c>
       <c r="H173" t="n">
-        <v>2.054361694534766</v>
+        <v>1.921677624924995</v>
       </c>
       <c r="I173" t="n">
-        <v>0.8561771290330176</v>
+        <v>0.7149254169637079</v>
       </c>
       <c r="J173" t="n">
-        <v>1.041059766493709</v>
+        <v>0.8552711396452928</v>
       </c>
       <c r="K173" t="n">
-        <v>-1.929575106202927</v>
+        <v>-1.98124415526565</v>
       </c>
     </row>
     <row r="174">
@@ -7211,25 +7211,25 @@
         <v>12</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.5382959400290651</v>
+        <v>-1.457708662414392</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.8873763643315822</v>
+        <v>-1.471499647042237</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.4036667076270303</v>
+        <v>-1.276168924354975</v>
       </c>
       <c r="H174" t="n">
-        <v>1.832965064937421</v>
+        <v>7.234510915278866</v>
       </c>
       <c r="I174" t="n">
-        <v>0.8573516549140892</v>
+        <v>-0.7178361289072264</v>
       </c>
       <c r="J174" t="n">
-        <v>1.209026712782677</v>
+        <v>0.4255695418815154</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.070004623260107</v>
+        <v>-2.736880319869369</v>
       </c>
     </row>
     <row r="175">
@@ -7250,25 +7250,25 @@
         <v>13</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1357444137584664</v>
+        <v>-0.5825064486099935</v>
       </c>
       <c r="F175" t="n">
-        <v>-1.486108576772779</v>
+        <v>-0.5499207616815911</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.5199323533799034</v>
+        <v>-0.1965035050705118</v>
       </c>
       <c r="H175" t="n">
-        <v>2.164428613726069</v>
+        <v>1.851874826764591</v>
       </c>
       <c r="I175" t="n">
-        <v>0.8558558506415901</v>
+        <v>0.3930157627695669</v>
       </c>
       <c r="J175" t="n">
-        <v>1.089904129363319</v>
+        <v>1.009933279549566</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.239894195085646</v>
+        <v>-1.925894601453064</v>
       </c>
     </row>
     <row r="176">
@@ -7289,25 +7289,25 @@
         <v>14</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.5985528260870795</v>
+        <v>-0.5933051852064098</v>
       </c>
       <c r="F176" t="n">
-        <v>-1.417787222592928</v>
+        <v>-0.3523591550918863</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.02241027005918251</v>
+        <v>-0.498187702830926</v>
       </c>
       <c r="H176" t="n">
-        <v>1.96549682650403</v>
+        <v>1.860132777622502</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9915886449490731</v>
+        <v>0.4905423911450518</v>
       </c>
       <c r="J176" t="n">
-        <v>1.338931616934108</v>
+        <v>1.001513360059968</v>
       </c>
       <c r="K176" t="n">
-        <v>-2.25726996447822</v>
+        <v>-1.908338883066485</v>
       </c>
     </row>
     <row r="177">
@@ -7328,25 +7328,25 @@
         <v>15</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.5361262269929444</v>
+        <v>-0.5813478098790296</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.9024669277595813</v>
+        <v>-0.4308858831210025</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.5058487104343848</v>
+        <v>-0.3115763473754894</v>
       </c>
       <c r="H177" t="n">
-        <v>2.041196014043188</v>
+        <v>1.837878391665072</v>
       </c>
       <c r="I177" t="n">
-        <v>0.8437528433331957</v>
+        <v>0.3939850828420041</v>
       </c>
       <c r="J177" t="n">
-        <v>1.029916337901285</v>
+        <v>0.9954966789995751</v>
       </c>
       <c r="K177" t="n">
-        <v>-1.970422908003848</v>
+        <v>-1.903549473614594</v>
       </c>
     </row>
     <row r="178">
@@ -7367,25 +7367,25 @@
         <v>16</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.5361262269929444</v>
+        <v>0.05027589226581225</v>
       </c>
       <c r="F178" t="n">
-        <v>-0.9024669277595813</v>
+        <v>0.6232709690923602</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.5058487104343848</v>
+        <v>0.378885502408004</v>
       </c>
       <c r="H178" t="n">
-        <v>2.041196014043188</v>
+        <v>2.621602250645668</v>
       </c>
       <c r="I178" t="n">
-        <v>0.8437528433331957</v>
+        <v>1.257901771531418</v>
       </c>
       <c r="J178" t="n">
-        <v>1.029916337901285</v>
+        <v>1.771347113669377</v>
       </c>
       <c r="K178" t="n">
-        <v>-1.970422908003848</v>
+        <v>-6.703305223483818</v>
       </c>
     </row>
     <row r="179">
@@ -7406,25 +7406,25 @@
         <v>17</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.527973124393476</v>
+        <v>-0.598654373956068</v>
       </c>
       <c r="F179" t="n">
-        <v>-0.6726806955398752</v>
+        <v>-0.6881890201292366</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.6208958192276846</v>
+        <v>-0.7038620093513397</v>
       </c>
       <c r="H179" t="n">
-        <v>2.020921903352558</v>
+        <v>2.077047325169394</v>
       </c>
       <c r="I179" t="n">
-        <v>0.8252105538388442</v>
+        <v>0.9448446256015687</v>
       </c>
       <c r="J179" t="n">
-        <v>1.014217855139878</v>
+        <v>1.048117690289145</v>
       </c>
       <c r="K179" t="n">
-        <v>-2.038802750962835</v>
+        <v>-2.079308950285135</v>
       </c>
     </row>
     <row r="180">
@@ -7445,25 +7445,25 @@
         <v>18</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.6792290343446267</v>
+        <v>-0.3565914796568028</v>
       </c>
       <c r="F180" t="n">
-        <v>-0.8951504318507488</v>
+        <v>-1.345740663032711</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.4260638938885642</v>
+        <v>-0.0092003483119006</v>
       </c>
       <c r="H180" t="n">
-        <v>2.047628970388036</v>
+        <v>2.062174463234819</v>
       </c>
       <c r="I180" t="n">
-        <v>0.8688929249694597</v>
+        <v>0.6571460524944244</v>
       </c>
       <c r="J180" t="n">
-        <v>1.044146635821327</v>
+        <v>1.16501155441646</v>
       </c>
       <c r="K180" t="n">
-        <v>-1.960229201421277</v>
+        <v>-2.172805156523385</v>
       </c>
     </row>
     <row r="181">
@@ -7484,25 +7484,25 @@
         <v>19</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.208301055763653</v>
+        <v>-0.5836473571952794</v>
       </c>
       <c r="F181" t="n">
-        <v>-0.9137353963596742</v>
+        <v>-0.5567835047367197</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.03723110795018567</v>
+        <v>-0.2977556096560018</v>
       </c>
       <c r="H181" t="n">
-        <v>2.162695021247735</v>
+        <v>1.668705164183208</v>
       </c>
       <c r="I181" t="n">
-        <v>1.028991635287638</v>
+        <v>0.5217757625374758</v>
       </c>
       <c r="J181" t="n">
-        <v>1.174396780277225</v>
+        <v>1.187492180018962</v>
       </c>
       <c r="K181" t="n">
-        <v>-2.206818467893032</v>
+        <v>-1.939791279350695</v>
       </c>
     </row>
   </sheetData>
